--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="2025-10-22" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2025-10-29" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,7 +470,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -485,7 +485,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -501,7 +500,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,7 +515,6 @@
           <t>97</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -533,7 +530,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -549,7 +545,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -565,7 +560,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -581,7 +575,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -597,7 +590,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -613,7 +605,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -629,7 +620,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -645,7 +635,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -661,7 +650,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -677,7 +665,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -693,7 +680,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -709,7 +695,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -725,7 +710,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -741,7 +725,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -757,7 +740,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -773,7 +755,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -789,7 +770,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -805,7 +785,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -821,7 +800,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -837,7 +815,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -853,7 +830,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -869,7 +845,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -885,7 +860,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -901,7 +875,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -917,7 +890,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -933,7 +905,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -949,7 +920,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -965,7 +935,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -981,7 +950,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -997,7 +965,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1013,7 +980,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1029,7 +995,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1045,7 +1010,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1061,7 +1025,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1077,7 +1040,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1093,7 +1055,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1109,7 +1070,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1125,7 +1085,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1141,7 +1100,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1157,7 +1115,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1173,7 +1130,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1189,7 +1145,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1205,7 +1160,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1221,7 +1175,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1237,7 +1190,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1253,7 +1205,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1269,7 +1220,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1285,7 +1235,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1301,7 +1250,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1317,7 +1265,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1333,7 +1280,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1349,7 +1295,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1365,7 +1310,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1381,7 +1325,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1397,7 +1340,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1413,7 +1355,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1429,7 +1370,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1445,7 +1385,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1461,7 +1400,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1477,7 +1415,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1493,7 +1430,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1509,7 +1445,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1525,7 +1460,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1541,7 +1475,6 @@
           <t>112</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1557,7 +1490,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1573,7 +1505,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1589,7 +1520,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1605,7 +1535,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1621,7 +1550,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1637,7 +1565,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1653,7 +1580,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1669,7 +1595,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1685,7 +1610,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1701,7 +1625,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1717,7 +1640,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1733,7 +1655,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1749,7 +1670,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1765,7 +1685,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1781,7 +1700,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1797,7 +1715,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1813,7 +1730,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1829,7 +1745,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1845,7 +1760,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1861,7 +1775,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1877,7 +1790,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1893,7 +1805,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1909,7 +1820,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1925,7 +1835,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1941,7 +1850,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1957,7 +1865,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1973,7 +1880,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1989,7 +1895,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2005,7 +1910,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2021,7 +1925,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2037,7 +1940,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2046,6 +1948,1646 @@
       <c r="B101" t="inlineStr">
         <is>
           <t>とある町でおきた百の怪異について:</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア ~クソゲーハンター、神ゲーに挑まんとす~</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SPY×FAMILY</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAJOR 2nd(メジャーセカンド)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TSUYOSHI 誰も勝てない、アイツには</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>修羅の刻</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>月が導く異世界道中16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>祖母と孫娘のブルース</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>黒岩メダカに私の可愛いが通じない</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>THE NEW GATE17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>フリースキルで最強冒険者 ~ペットも無双で異世界生活が楽しすぎる~</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>青のオーケストラ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>キラー通りのソムリエ探偵</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>魔導具師ダリヤはうつむかない ~王立高等学院編~</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>お茶屋さんは賢者見習い</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>異世界帰りのパラディンは、最強の除霊師となる</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>茉莉花官吏伝~後宮女官、気まぐれ皇帝に見初められ~</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SAKAMOTO DAYS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>おつぼみさま 大人の小さなときめき物語</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>俺だけレベルアップな件</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐&amp;『ざまぁ!』します!</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>素材採取家の異世界旅行記9</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>異世界ゆるり紀行 ~子育てしながら冒険者します~11</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ダンダダン</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>無自覚天才錬金術師の辺境街づくり</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ニューノーマル8</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>異世界クラス召喚されたらR1○のスキルを獲得したので、○りたい放題させてもらいます!</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>不遇スキルの錬金術師、辺境を開拓する7</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>オタクに優しいギャルはいない!?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>転生貴族の異世界冒険録</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>史上最強の魔法剣士、Fランク冒険者に転生する ~剣聖と魔帝、2つの前世を持った男の英雄譚~</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ONE PIECE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>無自覚天才錬金術師の辺境街づくり</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ひなたデリシャス</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>引っこ抜いたら異世界で 第1話</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>勇者の旅の裏側で 第1話</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>アンダーニンジャ</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>しあわせは食べて寝て待て</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>合コンに行ったら女がいなかった話</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3月のライオン</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>青のミブロー新選組編ー</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>弱虫ペダル</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>カグラバチ</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>主任がゆく!</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>じゃあ、あんたが作ってみろよ</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>じゃあ、あんたが作ってみろよ</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>じゃあ、あんたが作ってみろよ</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>寄り添ってくれる愛がいい</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>絡み愛~絶望の中でキミだけが天使だった</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>帝都の鬼は桜を恋う</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>無自覚天才錬金術師の辺境街づくり</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>治癒魔法の間違った使い方 ~誘いの街・レストバレー~</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>魔法歌姫マジカルギンガ 第20話</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>騙されて溺愛再婚しました! 第1話</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3itches 三魔女</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>最終兵器家族</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>勇者の旅の裏側で 第1話</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>二度追放された冒険者、激レアスキル駆使して美少女軍団を育成中! コミック版</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>俺、勇者じゃないですから。 9 VR世界の頂点に君臨せし男。転生し、レベル1の無職からリスタートする</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>無自覚聖女は今日も無意識に力を垂れ流す ~公爵家の落ちこぼれ令嬢、嫁ぎ先で幸せを掴み取る~7</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>怪獣8号</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>甘神さんちの縁結び</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>離婚予定の契約婚なのに、冷酷公爵様に執着されています</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>勇者の出番ねぇからっ!! ~異世界転生するけど俺は脇役と言われました~ コミック版</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>婚約者に裏切られた錬金術師は、独立して『ざまぁ』します コミック版</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>大塚コンシェルジュ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>RED&amp;BLUE 第3話</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>帝都の鬼は桜を恋う</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>帝都の鬼は桜を恋う</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>偽りの婚約は蜜よりも甘く~エリート外科医の独占愛からは逃げられない~</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>服飾師ルチアはあきらめない ~今日から始める幸服計画~</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>引っこ抜いたら異世界で 第2話</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>一般兵士が転生特典に『無限再生』を貰った結果、数多の美女に狙われた(コミック) 1話</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>3itches 三魔女</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>コミックグロウル vol.9</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>極主夫道</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>俺だけ不遇スキルの異世界召喚叛逆記~最弱スキルが全てを飲み込むまで~</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>黒崎さんの一途な愛がとまらない</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>王様ランキング</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>花野井くんと恋の病</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>魔入りました!入間くん</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>桃源暗鬼</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>トニカクカワイイ</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>アオのハコ</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>インスタントエンジェル天子様が来る!</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>インド夫婦茶碗</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>寄り添ってくれる愛がいい</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>絡み愛~絶望の中でキミだけが天使だった</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>人質として売られた夜の聖女は隣国の大公様に嫁ぐ1</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>脇役ハピエン計画~悪役の従姉はバッドエンドから逃れたい~ (フルカラー)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="2025-10-22" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2025-10-29" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2025-11-05" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2011,7 +2012,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2027,7 +2027,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2043,7 +2042,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2059,7 +2057,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2075,7 +2072,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2091,7 +2087,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2107,7 +2102,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2123,7 +2117,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2139,7 +2132,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2155,7 +2147,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2171,7 +2162,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2187,7 +2177,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2203,7 +2192,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2219,7 +2207,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2235,7 +2222,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2251,7 +2237,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2267,7 +2252,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2283,7 +2267,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2299,7 +2282,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2315,7 +2297,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2331,7 +2312,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2347,7 +2327,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2363,7 +2342,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2379,7 +2357,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2395,7 +2372,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2411,7 +2387,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2427,7 +2402,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2443,7 +2417,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2459,7 +2432,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2475,7 +2447,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2491,7 +2462,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2507,7 +2477,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2523,7 +2492,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2539,7 +2507,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2555,7 +2522,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2571,7 +2537,6 @@
           <t>112</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2587,7 +2552,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2603,7 +2567,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2619,7 +2582,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2635,7 +2597,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2651,7 +2612,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2667,7 +2627,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2683,7 +2642,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2699,7 +2657,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2715,7 +2672,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2731,7 +2687,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2747,7 +2702,6 @@
           <t>97</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2763,7 +2717,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2779,7 +2732,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2795,7 +2747,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2811,7 +2762,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2827,7 +2777,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2843,7 +2792,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2859,7 +2807,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2875,7 +2822,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2891,7 +2837,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2907,7 +2852,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2923,7 +2867,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2939,7 +2882,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2955,7 +2897,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2971,7 +2912,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2987,7 +2927,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3003,7 +2942,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3019,7 +2957,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3035,7 +2972,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3051,7 +2987,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3067,7 +3002,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3083,7 +3017,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3099,7 +3032,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3115,7 +3047,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3131,7 +3062,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3147,7 +3077,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3163,7 +3092,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3179,7 +3107,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3195,7 +3122,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3211,7 +3137,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3227,7 +3152,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3243,7 +3167,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3259,7 +3182,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3275,7 +3197,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3291,7 +3212,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3307,7 +3227,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3323,7 +3242,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3339,7 +3257,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3355,7 +3272,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3371,7 +3287,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3387,7 +3302,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3403,7 +3317,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3419,7 +3332,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3435,7 +3347,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3451,7 +3362,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3467,7 +3377,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3483,7 +3392,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3499,7 +3407,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3515,7 +3422,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3531,7 +3437,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3547,7 +3452,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3563,7 +3467,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3579,7 +3482,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3593,6 +3495,1646 @@
       <c r="C101" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>賭ケグルイ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>自称悪役令嬢な婚約者の観察記録。</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア ~クソゲーハンター、神ゲーに挑まんとす~</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>月が導く異世界道中16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>君と宇宙を歩くために</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>魔導具師ダリヤはうつむかない ~王立高等学院編~</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SPY×FAMILY</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>青のオーケストラ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>治癒魔法の間違った使い方 ~誘いの街・レストバレー~</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>陰キャの俺が席替えでS級美少女に囲まれたら秘密の関係が始まった。</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ニューノーマル10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Re:blue</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>お茶屋さんは賢者見習い</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>時ノ檻~死に戻りの霊装使い、能力で最強へと至る~1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>フリースキルで最強冒険者 ~ペットも無双で異世界生活が楽しすぎる~</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>キラー通りのソムリエ探偵</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>火喰鳥を、喰う</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>魔法歌姫マジカルギンガ 第21話</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>THE NEW GATE17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>K2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>追放されるたびにスキルを手に入れた俺が、100の異世界で2周目無双</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ダンダダン</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>君を忘れる恋がしたい</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>執事ですがなにか?~幼馴染のパワハラ皇女と絶縁したら、隣国の向日葵王女に拾われたのでこの身を捧げます~4</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>執事ですがなにか?~幼馴染のパワハラ皇女と絶縁したら、隣国の向日葵王女に拾われたのでこの身を捧げます~5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>執事ですがなにか?~幼馴染のパワハラ皇女と絶縁したら、隣国の向日葵王女に拾われたのでこの身を捧げます~6</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>服飾師ルチアはあきらめない ~今日から始める幸服計画~</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>禍&lt;わざわい&gt;の魔女と呼ばれた転生幼女、今世こそ幸せになるためにがんばります!1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ゼロかヒャクかの五十嵐くん</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>異世界帰りのパラディンは、最強の除霊師となる</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>無職転生 ~異世界行ったら本気だす~ 失意の魔術師編</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>陰キャの俺が席替えでS級美少女に囲まれたら秘密の関係が始まった。</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>陰キャの俺が席替えでS級美少女に囲まれたら秘密の関係が始まった。</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>火喰鳥を、喰う</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>火喰鳥を、喰う</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>かつての暗殺者は来世で違う生き方をする</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>少女に転生したシリアルキラーは、無慈悲にNarrを追い詰める。</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>不運からの最強男</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>先日救っていただいたドラゴンです(ノヴァコミックス)1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>レンズの向こうの女神たち1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>闇金クロサキ~復讐は計画的に~1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>イリーガル 外道には制裁を1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>あの夜、社長の子供を授かりました第1話</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ニューノーマル11</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ニューノーマル12</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ニューノーマル13</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ニューノーマル14</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>あくまでも恋愛がしたい!</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>カバンの勇者の異世界のんびり旅</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>アンダーニンジャ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>オタクに優しいギャルはいない!?</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>真実の愛を見つけたと言われて婚約破棄されたので、復縁を迫られても今さらもう遅いです!(コミック)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>王様ランキング</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MAJOR 2nd(メジャーセカンド)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>不可抗力のI LOVE YOU</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ゼロかヒャクかの五十嵐くん</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ゼロかヒャクかの五十嵐くん</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>修羅幼女の英雄譚~半端者と言われた傭兵、幼女に転生して成り上がる~4</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>修羅幼女の英雄譚~半端者と言われた傭兵、幼女に転生して成り上がる~5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>修羅幼女の英雄譚~半端者と言われた傭兵、幼女に転生して成り上がる~6</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>かつての暗殺者は来世で違う生き方をする</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>かつての暗殺者は来世で違う生き方をする</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>少女に転生したシリアルキラーは、無慈悲にNarrを追い詰める。</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>少女に転生したシリアルキラーは、無慈悲にNarrを追い詰める。</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>祖母と孫娘のブルース</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>外れスキルでとんでも領地経営~雑魚スキルだと言われたけど、実は眠っている神々を起こす最強チートでした~</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>「幼馴染みがほしい」と呟いたらよく一緒に遊ぶ女友達の様子が変になったんだが1</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>怪より始めよ。</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>月のうさぎ</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>人恋しくて買った奴隷が気づいたら生産チート無双してました。(フルカラー) 第4話 決意の源泉</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>人恋しくて買った奴隷が気づいたら生産チート無双してました。(フルカラー) 第5話 労働は誰のために</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>水魔法なんて使えないと追放されたけど、水が万能だと気がつき水の賢者と呼ばれるまでに成長しました~今更水不足と泣きついても簡単には譲れません~1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ツインリンカネーション</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ふたつのちぶさ</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>きみの願いが叶うまで</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>俺にだけ小悪魔な後輩は現実でも可愛いが、夢の中ではもっと可愛い</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>あくまでも恋愛がしたい!</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>あくまでも恋愛がしたい!</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>カバンの勇者の異世界のんびり旅</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>カバンの勇者の異世界のんびり旅</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>キュージック! 燃え尽き吸血鬼の音楽</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>俺だけレベルアップな件</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1日外出録ハンチョウ</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>転生ババァは見過ごせない! 元悪徳女帝の二周目ライフ7</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>素材採取家の異世界旅行記9</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>神々の加護で生産革命~異世界の片隅でまったりスローライフしてたら、なぜか多彩な人材が集まって最強国家ができてました~(コミック)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>最強治癒師の手違いスローライフ~「白魔法」が使えないと追放されたけど、代わりの「城魔法」が無敵でした~</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>俺は星間国家の悪徳領主!</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TSUYOSHI 誰も勝てない、アイツには</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>執事ですがなにか?~幼馴染のパワハラ皇女と絶縁したら、隣国の向日葵王女に拾われたのでこの身を捧げます~3</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>怪獣8号</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>19</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -10,6 +10,7 @@
     <sheet name="2025-10-22" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="2025-10-29" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2025-11-05" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2025-11-12" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31,12 +32,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFACD"/>
+        <bgColor rgb="00FFFACD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -57,11 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3553,7 +3561,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3569,7 +3576,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3585,7 +3591,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3601,7 +3606,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3617,7 +3621,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3633,7 +3636,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3649,7 +3651,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3665,7 +3666,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -3681,7 +3681,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3697,7 +3696,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3713,7 +3711,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3729,7 +3726,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3745,7 +3741,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3761,7 +3756,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3777,7 +3771,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3793,7 +3786,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3809,7 +3801,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3825,7 +3816,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3841,7 +3831,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3857,7 +3846,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3873,7 +3861,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3889,7 +3876,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3905,7 +3891,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3921,7 +3906,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -3937,7 +3921,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3953,7 +3936,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3969,7 +3951,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3985,7 +3966,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4001,7 +3981,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4017,7 +3996,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -4033,7 +4011,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -4049,7 +4026,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -4065,7 +4041,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4081,7 +4056,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -4097,7 +4071,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -4113,7 +4086,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4129,7 +4101,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4145,7 +4116,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4161,7 +4131,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4177,7 +4146,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4193,7 +4161,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4209,7 +4176,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4225,7 +4191,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4241,7 +4206,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4257,7 +4221,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4273,7 +4236,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4289,7 +4251,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4305,7 +4266,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4321,7 +4281,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4337,7 +4296,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4353,7 +4311,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4369,7 +4326,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4385,7 +4341,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4401,7 +4356,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4417,7 +4371,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4433,7 +4386,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4449,7 +4401,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4465,7 +4416,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4481,7 +4431,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4497,7 +4446,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4513,7 +4461,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4529,7 +4476,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4545,7 +4491,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4561,7 +4506,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4577,7 +4521,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4593,7 +4536,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4609,7 +4551,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4625,7 +4566,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4641,7 +4581,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4657,7 +4596,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4673,7 +4611,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4689,7 +4626,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4705,7 +4641,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4721,7 +4656,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4737,7 +4671,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4753,7 +4686,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4769,7 +4701,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4785,7 +4716,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4801,7 +4731,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4817,7 +4746,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4833,7 +4761,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4849,7 +4776,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4865,7 +4791,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4881,7 +4806,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4897,7 +4821,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4913,7 +4836,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4929,7 +4851,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4945,7 +4866,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4961,7 +4881,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -4977,7 +4896,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -4993,7 +4911,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5009,7 +4926,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5025,7 +4941,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5041,7 +4956,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5057,7 +4971,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5073,7 +4986,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5089,7 +5001,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5105,7 +5016,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5121,7 +5031,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5137,7 +5046,1347 @@
           <t>19</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BLUE GIANT MOMENTUM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>九条の大罪</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>少年院ウシジマくん</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>傷モノの花嫁</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SPY×FAMILY</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件~魔物の国の歩き方~</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>永年雇用は可能でしょうか</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>エルフ先生と呼ばないで! 第1話</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ギャラ飲み女子とラーメンおじさん</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>逆行した元悪役令嬢、性格の悪さは直さず処刑エンド回避します! 第1話(アリアンローズコミックス)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>異世界整体師 ~美女も亜人も魔物も竜も、お前ら全員揉みほぐす!!~</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>終わりのセラフ</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>無職転生 ~異世界行ったら本気だす~ 失意の魔術師編</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>聖女様になりたいのに攻撃魔法しか使えないんですけど!? 第2話</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>まほまね</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>熱造カノジョ1</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ガチャを回して仲間を増やす 最強の美少女軍団を作り上げろ THE COMIC</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>賭ケグルイ</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>勇者は魔王が好きらしい</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ハイブルク家三男は小悪魔ショタです 第1話</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>勇者に殺される悪徳領主に転生した俺、序盤に鍛えすぎたせいで勇者の地位を奪ってしまう1</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>逆立てないで!カルマくん1</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>異界から聖女が来たのでお役御免になりました~処刑されそうなので隠した力を解放させていただきます!~1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>このマンガがすごい! comics おとなしく泣き寝入りするとでも思いましたか?第1話①</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>スキ妻とモチ夫~うちの妻が愛らしすぎて心配です!~</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>「追放村」領主の超開拓 ~追放者だらけの辺境村がやがて世界に覇権を唱えるようです~(コミック) 1話</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>鵺の陰陽師</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>世界の終わりのいずこねこ 完全版 茉里ver.</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ディエンビエンフー・プレス 完全版</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>世界の終わりの魔法使い 完全版 1 すべての始まり</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>アオザイ通信 完全版 1 食と文化</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ヤング・アライブ・イン・ラブ 完全版1</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>時ノ檻~死に戻りの霊装使い、能力で最強へと至る~1</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>お茶屋さんは賢者見習い</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>夜叉王の最愛 ~虐げられた治癒の乙女は溺愛される~</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>宮中は噂のたえない職場にて</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RED&amp;BLUE 第5話</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>復讐完遂者の人生二周目異世界譚 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>あやかし妖怪娘</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ギルドの受付嬢は定時上がりの夢を見る@COMIC 第1話</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>摩天楼</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>転生して田舎でスローライフをおくりたい</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>オーイ! とんぼ</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>片田舎のおっさん、剣聖になる~ただの田舎の剣術師範だったのに、大成した弟子たちが俺を放ってくれない件~(話売り) #40</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>祝福のチェスカ : 12 エピローグ</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>魔導具師ダリヤはうつむかない ~王立高等学院編~</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>異世界帰りのパラディンは、最強の除霊師となる</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>私が恋したきみじゃない</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>「お前ごときが魔王に勝てると思うな」と勇者パーティを追放されたので、王都で気ままに暮らしたい THE COMIC</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>毎日家に来るギャルが距離感ゼロでも優しくない THE COMIC</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>婚約破棄されたら異国の王子に溺愛されました 甘~いキスは悦楽の予感</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>このマンガがすごい! comics おとなしく泣き寝入りするとでも思いましたか?第1話②</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>このマンガがすごい! comics おとなしく泣き寝入りするとでも思いましたか?第1話③</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ぼくは君の奇跡 ~The Miracle of Teddy Bear~</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ディエンビエンフー 完全版</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>西島大介短編集 1 夏の彗星</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>竜騎士のお気に入り:</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>月が導く異世界道中16</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MAJOR 2nd(メジャーセカンド)</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ルリドラゴン</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ディエンビエンフー・プレス 完全版</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>世界の終わりの魔法使い 完全版 2 恋におちた悪魔</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>世界の終わりの魔法使い 完全版 3 影の子どもたち</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>アオザイ通信 完全版 2 歴史と戦争</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>若き社長は婚約者の姉を溺愛する1</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>フリースキルで最強冒険者 ~ペットも無双で異世界生活が楽しすぎる~</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>治癒魔法の間違った使い方 ~誘いの街・レストバレー~</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>闇金クロサキ~復讐は計画的に~1</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>イリーガル 外道には制裁を1</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>私以外みんな幸せ</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>東京婚活難民 ~結婚なんて、その気になればすぐできる…と思ってた~</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>賢者の弟子を名乗る賢者 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>元最強の剣士は、異世界魔法に憧れる THE COMIC</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ラッキードッグ</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>経験人数が見えるメガネ</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>催芽さんは催眠アプられたい1</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>暴食のベルセルク~俺だけレベルという概念を突破する~ THE COMIC</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>異世界で聖女になったので国民的アイドルを目指します</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>異界から聖女が来たのでお役御免になりました~処刑されそうなので隠した力を解放させていただきます!~2</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>セカンドショジョと契約彼氏</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>玉の輿ゲーム</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>玉の輿ゲーム</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ぼくは君の奇跡 ~The Miracle of Teddy Bear~</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ぼくは君の奇跡 ~The Miracle of Teddy Bear~</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ぼくは君の奇跡 ~The Miracle of Teddy Bear~</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア ~クソゲーハンター、神ゲーに挑まんとす~</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>追放されるたびにスキルを手に入れた俺が、100の異世界で2周目無双</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>神々の加護で生産革命~異世界の片隅でまったりスローライフしてたら、なぜか多彩な人材が集まって最強国家ができてました~(コミック)</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ありす、宇宙までも</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>今どきの若いモンは</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>カグラバチ</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>悪祓士のキヨシくん</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>あかね噺</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>社内探偵</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>俺の声に堕ちてください</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>死にかけ令嬢ですが冷徹な騎士様と理想の殿方を探します!1</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>じゃじゃ馬令嬢の婚活は前途多難です~辺境伯の筆頭護衛を攻略できません!~1</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -11,6 +11,7 @@
     <sheet name="2025-10-29" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="2025-11-05" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2025-11-12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2025-11-19" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6391,4 +6392,1345 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐&amp;『ざまぁ!』します!</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>杖と剣のウィストリア</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>パリピ孔明</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>九条の大罪</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる~英雄村の少年がチート薬で無自覚無双~</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>デキる猫は今日も憂鬱</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>世界最強の魔女、始めました ~私だけ『攻略サイト』を見れる世界で自由に生きます~</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ULTRAMAN</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BLUE GIANT MOMENTUM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>追放されたお嬢様の『モンスターを食べるほど強くなる』スキルは、1食で1レベルアップする前代未聞の最強スキルでした。3日で人類最強になりましたわ~!</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ライドンキング</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>弱虫ペダル SPARE BIKE</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>学園ベビーシッターズ</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>終わりのセラフ</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SPY×FAMILY</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>技巧貸与&lt;スキル・レンダー&gt;のとりかえし~トイチって最初に言ったよな?~</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ドローイング 最強漫画家はお絵描きスキルで異世界無双する!16</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>無自覚な天才少女は気付かない</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ルリドラゴン</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>あかね噺</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作』スキルで領地を爆速で開拓し最強の村を作ってしまう~最強クラフトスキルで始める、楽々領地開拓スローライフ~</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>悪役令嬢、転生前はおばあちゃん~若王子との恋は難儀です~</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ひかりちゃんはクズだから</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>愛しの旦那様、私の断罪はまだですか? ~立派に散るために悪女になろうと思います~</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>最弱貴族に転生したので悪役たちを集めてみた</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>そうだ、売国しよう~天才王子の赤字国家再生術~</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>栽培チートで最強菜園~え、ただの家庭菜園ですけど?~</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>憂国のモリアーティ</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>復讐の王太子妃 ~虐げられた令嬢は冷酷騎士の手を取る~</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>魔法歌姫マジカルギンガ 第22話</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>生贄少女はお山の悪神に愛でられる</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>生贄少女はお山の悪神に愛でられる</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>生贄少女はお山の悪神に愛でられる</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ワケあって男と偽ってますが、過保護な騎士団長様に溺愛されすぎて困ってます!</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ある日、私は冷血公爵の娘になった</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>税金で買った本</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>落ちこぼれだった兄が実は最強 ~史上最強の勇者は転生し、学園で無自覚に無双する~</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>異世界マンチキン ーHP1のままで最強最速ダンジョン攻略ー</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>火の神さまの掃除人ですが、いつの間にか花嫁として溺愛されています</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>いつわり婚</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件~魔物の国の歩き方~</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>洗脳されかけていた悪役令嬢ですが家出を決意しました。1</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>しゃーなしやぞ</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>禍話</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>禍話</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>禍話</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>バカに告白</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>バカに告白</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>バカに告白</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>推しは殿下じゃございません…!!~悪役令嬢、甘攻め溺愛ルートに突入しました!?~1</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>獣の護衛と姫の恋</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>大江戸イノベーション</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>大江戸イノベーション</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>大江戸イノベーション</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>校内恋愛</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>転生保育士 アサシン佐々木さん</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ワケあって男と偽ってますが、過保護な騎士団長様に溺愛されすぎて困ってます!</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ワケあって男と偽ってますが、過保護な騎士団長様に溺愛されすぎて困ってます!</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>昴と彗星</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>新米錬金術師の店舗経営8</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>バキ外伝 烈海王は異世界転生しても一向にかまわんッッ</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>WORST外伝 ドクロ</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>暗殺スキルで異世界最強 ~錬金術と暗殺術を極めた俺は、世界を陰から支配する~</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>姫様“拷問”の時間です</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>山と食欲と私</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ONE PIECE</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>無職転生 ~異世界行ったら本気だす~ 失意の魔術師編</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>クーデレ魔法師ととろあま「つがい」契約3</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>妖魔狩りの末裔-俺だけ不死身の覚醒者-1</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>メンクイ</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>しゃーなしやぞ</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>しゃーなしやぞ</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ダメ犬彼女</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ダメ犬彼女</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ダメ犬彼女</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>RED&amp;BLUE 第6話</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>追放された付与術師、最強の乗算付与で成り上がる ~僕の付与術は+20じゃなく×20なんです~ 第1話</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>陰キャオブザデッド</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>陰キャオブザデッド</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>陰キャオブザデッド</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>陰キャオブザデッド</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>陰キャオブザデッド</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>昇天(イか)せるジョレイ師</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>昇天(イか)せるジョレイ師</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>大正やり直し令嬢の恋奇譚</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ワケあって男と偽ってますが、過保護な騎士団長様に溺愛されすぎて困ってます!</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>よくあるファンタジー小説で崖っぷち妃として生き残る</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ゴールデンマン</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>え、テイマーは使えないってパーティから追放したよね? ~実は世界唯一のだと判明した途端に手のひらを返されても遅い。精霊の王女様にめちゃくちゃ溺愛されながら、僕はマイペースに最強を目指すので</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐&amp;『ざまぁ!』します!</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ババンババンバンバンパイア</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>父は英雄、母は精霊、娘の私は転生者。</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>逃がした魚は大きかったが釣りあげた魚が大きすぎた件(コミック)</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -12,6 +12,7 @@
     <sheet name="2025-11-05" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="2025-11-12" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="2025-11-19" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2025-11-26" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7733,4 +7734,1345 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>黄泉のツガイ</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>転生賢者の異世界ライフ~第二の職業を得て、世界最強になりました~</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>金色のガッシュ!! 2 Page</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ゆびさきと恋々</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ゆるキャン△</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>出会って5秒でバトル</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>カッコウの許嫁</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>裏バイト:逃亡禁止</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>貸した魔力はで強制徴収~用済みとパーティー追放された俺は、可愛いサポート妖精と一緒に取り立てた魔力を運用して最強を目指す。~</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐&amp;『ざまぁ!』します!</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>本好きの下剋上~司書になるためには手段を選んでいられません~第四部「貴族院の図書館を救いたい!11」</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>やんごとなき一族</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ダンス・ダンス・ダンスール</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ちはやふる plus きみがため</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>勘違いの工房主 英雄パーティの元雑用係が、実は戦闘以外がSSSランクだったというよくある話9</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>虚構推理</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>転生者は世間知らず ~特典スキルでスローライフ!?~ コミック版</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>浪と損害のティティス</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>暗殺後宮~暗殺女官・花鈴はゆったり生きたい~</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>紫雲寺家の子供たち</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DEAR BOYS ACT4</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>戦隊大失格</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>杖と剣のウィストリア</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ハーレム・メイカー~ゲームのヒロインたちの攻略対象が俺ってマジか?~</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>アイツ</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BLUE GIANT MOMENTUM</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>KING GOLF</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SPY×FAMILY</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>魔導具師ダリヤはうつむかない ~王立高等学院編~</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>復讐の輪廻2</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ユウリ~彼女が復讐する理由~2</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>kitty,kitty,kitty! -ケダモノアラシ-</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>未知と宝物ざっくざくの迷宮大配信! ~ハズレスキルすらない凡人、見る人から見れば普通に非凡でした~ コミック版</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>四姉妹は夜をおまちかね</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>浪と損害のティティス</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>花束のような復讐を~怪物たちの愛を知れ~</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>無能の中の無能王子 スキルを授かりましたが、周りの女性はとかです コミック版</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>わたしの地味セン王子</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>硝子白書</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>瞳いっぱいの涙</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>菜子の色</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>君だけに輝く</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>賭ケグルイ</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>火の神さまの掃除人ですが、いつの間にか花嫁として溺愛されています</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>野生のラスボスが現れた! 黒翼の覇王11</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>転生したら皇帝でした~生まれながらの皇帝はこの先生き残れるか~@COMIC</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>灰仭巫覡</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>憂国のモリアーティ</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>服飾師ルチアはあきらめない ~今日から始める幸服計画~</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>独身偽装~私の彼氏は既婚者でした~2</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>俺たちの善と恋について</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>浪と損害のティティス</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>声が聞きたい小平くん</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>一年後、生贄になる君と偽りの恋をする</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>いつわりの花嫁 ~旦那さま、今宵お命頂戴します~</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>わたしの地味セン王子</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Friends -制服イレブン-</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Believe</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>てぃーんず -制服の林檎たち-</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>装備製作系チートで異世界を自由に生きていきます6</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ババンババンバンバンパイア</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>めっちゃ召喚された件 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SAKAMOTO DAYS</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>無職転生 ~異世界行ったら本気だす~ 失意の魔術師編</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>フリースキルで最強冒険者 ~ペットも無双で異世界生活が楽しすぎる~</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>お茶屋さんは賢者見習い</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>婚約破棄されたらエリート御曹司の義弟に娶られました1</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>シンデレラ・コンプレックス 1話 始まりの教室</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>これが恋だと知っている</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>現実世界にダンジョン現る! ~アラサーフリーターは元聖女のスケルトンと一緒に成り上がります!~ コミック版</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>RED&amp;BLUE 第7話</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>経験人数が見えるメガネ</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>オンタマ!?ミラクルフラッピン!</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>恋はカーテンコールのあとで。</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>いつわり婚</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>召喚聖女は魔王様の膝の上~聖女は猫になりまして~</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>レベルアップデイズ~幼馴染の攻略サポート~</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>すばらしき新世界(フルカラー)</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>かぐや姫の孫</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>現実世界にダンジョン現る! ~アラサーフリーターは元聖女のスケルトンと一緒に成り上がります!~ コミック版</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>推しの敵になったので@COMIC 第1話</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>芦屋山手 お道具迎賓館(コミック) 1話</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>入れ替わったら、オレ様彼氏とエッチする運命でした!</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ウィズ -幸せのある場所-</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>天使のオシャベリ</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Kissの奇跡</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>君はぼくのヒーローさ</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -13,6 +13,7 @@
     <sheet name="2025-11-12" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="2025-11-19" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="2025-11-26" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025-12-03" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9075,4 +9076,1345 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GIANT KILLING</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ブルーピリオド</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ドラフトキング</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ふたりソロキャンプ</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ベー革</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ゾン100~ゾンビになるまでにしたい100のこと~</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>超人X</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>スライムテイマーの異世界ライフ1</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ハズレ枠ので最強になった俺がすべてを蹂躙するまで</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>黄泉のツガイ</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ジャンケットバンク</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>とんがり帽子のアトリエ</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>金色のガッシュ!! 2 Page</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>捨てられ貴族の無人島のびのび開拓記~ようやく自由を手に入れたので、もふもふたちと気まぐれスローライフを満喫します~</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>山奥育ちの俺のゆるり異世界生活~もふもふと最強たちに可愛がられて、二度目の人生満喫中~</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>カテナチオ</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>終末のワルキューレ禁伝 神々の黙示録</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>オシバナ!</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ちいかわ なんか小さくてかわいいやつ</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>異世界でスローライフを(願望)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>虚構推理</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>声が聞きたい小平くん</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>おっさん異世界で最強になる</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>勇者パーティから追い出された不遇職、ユニークスキルで最強になる1</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>うちの妻… 抱いてみませんか?</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>解雇された暗黒兵士のスローなセカンドライフ</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>魔女大戦 32人の異才の魔女は殺し合う</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>出会って5秒でバトル</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>KING GOLF</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DEAR BOYS ACT4</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>春の嵐とモンスター</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>この度、公爵家の令嬢の婚約者となりました。しかし、噂では性格が悪く、十歳も年上です。 コミック版</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>復讐代行アプリ ~1タップで処刑します~</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>錬金術師の辺境再生スローライフ~S級パーティーで孤立した少女をかばったら追放されたので、一緒に幸せに暮らします~1</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ハズレ枠ので最強になった俺がすべてを蹂躙するまで</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>蒼天の拳 リジェネシス</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>二階堂地獄ゴルフ</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>龍とカメレオン</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ゆるキャン△</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>顔だけじゃ好きになりません</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>復讐代行アプリ ~1タップで処刑します~</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>復讐代行アプリ ~1タップで処刑します~</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>おっさん異世界で最強になる</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>おっさん異世界で最強になる</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>久々に健康診断を受けたら最強ステータスになっていた ~追放されたオッサン冒険者、今更英雄を目指す~</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>勇者パーティーをクビになったので故郷に帰ったら、メンバー全員がついてきたんだが</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>魔法歌姫マジカルギンガ 第23話</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ギルド最弱のFランク冒険者、ユニークスキル「隠しクエスト」で最強に成り上がる1</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Sランク冒険者である俺の娘たちは重度のファザコンでした</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>異世界でスローライフを(願望)</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>終末のワルキューレ奇譚 ジャック・ザ・リッパーの事件簿</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>貸した魔力はで強制徴収~用済みとパーティー追放された俺は、可愛いサポート妖精と一緒に取り立てた魔力を運用して最強を目指す。~</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SPY×FAMILY</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>離婚予定の契約婚なのに、冷酷公爵様に執着されています</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ふたり鷹</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>今夜コインランドリーで逢いましょう</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>住所不定キャンパーはダンジョンでのんびりと暮らしたい</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>久々に健康診断を受けたら最強ステータスになっていた ~追放されたオッサン冒険者、今更英雄を目指す~</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>久々に健康診断を受けたら最強ステータスになっていた ~追放されたオッサン冒険者、今更英雄を目指す~</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>勇者パーティーをクビになったので故郷に帰ったら、メンバー全員がついてきたんだが</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>勇者パーティーをクビになったので故郷に帰ったら、メンバー全員がついてきたんだが</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>煙たい話</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>イジワル同居人は御曹司!?</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>錬金術師の辺境再生スローライフ~S級パーティーで孤立した少女をかばったら追放されたので、一緒に幸せに暮らします~6</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>最強ギルドを追放された《植物王》、実は世界樹に選ばれていたので植物の力で無双します3</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>現実主義勇者の王国再建記I</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BLUE GIANT MOMENTUM</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>転生貴族の万能開拓~スキルを使っていたら最強領地になりました~</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>前田慶次 かぶき旅</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>国を追われた竜師さん、拾われた隣国でうっかり無双してしまう。~弱小国家が大陸最強の竜の楽園になるまで~</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>異世界らくらくサバイバル~生存スキル強者の俺が美少女四人と暮らす無人島生活~</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ボーイッシュ彼女が可愛すぎる 通常版</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>九条の大罪</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>星屑の王子様</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>釣って食べたいギャル澤さん</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>杖と剣のウィストリア</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ピンクとハバネロ</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ワンモア・テーブル!~人生やり直しレストラン~1</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>懲らしめて差し上げますっ!~おてんば王女の下剋上日記~</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>勇者は村人Aに恋をする</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>これから幸せになります! 虐げられ令嬢ですが敵対国の公爵様に何故か溺愛されてます</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>今さらだけど異世界満喫! ~気づけばアラサー冒険者ですが、ゲーム知識で強くてニューゲーム~ 第1話-1</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ファントム無頼</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>クリスティ・ハイテンション</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>マウントするやつ黙らせます</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>今夜コインランドリーで逢いましょう</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>今夜コインランドリーで逢いましょう</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>住所不定キャンパーはダンジョンでのんびりと暮らしたい</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>住所不定キャンパーはダンジョンでのんびりと暮らしたい</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>世界にさよならのキスをして</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>マウントするやつ黙らせます</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -14,6 +14,7 @@
     <sheet name="2025-11-19" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="2025-11-26" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="2025-12-03" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="2025-12-10" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10417,4 +10418,1345 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ぼっち・ざ・ろっく!</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ハズレ枠ので最強になった俺がすべてを蹂躙するまで</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ブルーピリオド</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>黒執事</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>異世界でスローライフを(願望)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GIANT KILLING</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ハズレ枠ので最強になった俺がすべてを蹂躙するまで</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sランク冒険者である俺の娘たちは重度のファザコンでした</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>神血の救世主~0.00000001%を引き当て最強へ~</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>勇者パーティーを追放された白魔導師、Sランク冒険者に拾われる~この白魔導師が規格外すぎる~(コミック)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>オシバナ!</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>元婚約者から逃げるため吸血伯爵に恋人のフリをお願いしたら、なぜか溺愛モードになりました</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SPY×FAMILY</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>社内探偵</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BLOOD THE LAST VAMPIRE 2000</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>クトゥルーとか全然わからない俺が、邪神の力で爆乳女子と無双する1</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1・2のアッホ!!</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>×××HOLiC・戻</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>死に戻りの幸薄令嬢、今世では最恐ラスボスお義兄様に溺愛されてます</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>勇者殺しの元暗殺者。~無職のおっさんから始まるセカンドライフ~</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>いつでも自宅に帰れる俺は、異世界で行商人をはじめました</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ROPPEN-六篇-</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ステータス・オール∞(インフィニティ) ∞使いの最強能力者、異世界を自由気ままに暮らします!</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>春の嵐とモンスター</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>たまのこしいれ ―アシガールEDO―</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>落ちない汚れを僕は何と呼べばよかったのか</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>おひとり様のナナイさん</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BLOOD THE LAST VAMPIRE 2000</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BLOOD THE LAST VAMPIRE 2000</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>脳の髄まで愛してる 黄色い淫夢①</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>復讐の同窓会</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>小悪魔系天使は今日もいじわる</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1・2のアッホ!!</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件~魔物の国の歩き方~</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>超人X</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>転生無敗の異世界賢者~ゲームのジョブで楽しいセカンドライフ~</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ふたりソロキャンプ</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>デッドマウント・デスプレイ</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ドラフトキング</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ゆうべはお楽しみでしたね</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>憂国のモリアーティ</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>落ちない汚れを僕は何と呼べばよかったのか</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>落ちない汚れを僕は何と呼べばよかったのか</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>おひとり様のナナイさん</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>おひとり様のナナイさん</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>魔王の愛妻は愛されない</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>山奥育ちの俺のゆるり異世界生活~もふもふと最強たちに可愛がられて、二度目の人生満喫中~</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1・2のアッホ!!</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>もふもふと行く、腹ペコ料理人の絶品グルメライフ 第2話</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>この恋、おくちにあいますか? ~優等生の白姫さんは問題児の俺と毎日キスしてる~</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>この恋、おくちにあいますか? ~優等生の白姫さんは問題児の俺と毎日キスしてる~</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>この恋、おくちにあいますか? ~優等生の白姫さんは問題児の俺と毎日キスしてる~</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>嗤うサレ妻 復讐の好機は逃さない</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>無能と追放された最弱魔法剣士、呪いが解けたので最強へ成り上がる6</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>突撃!自衛官妻</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>F REGENERATION 瑠璃</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>風の騎士団</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Re-Tune ~あなたの人生チューニングします~</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>天空の扉</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>胚培養士(はいばいようし)ミズイロ~不妊治療のスペシャリスト~</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>食料生成スキルを手に入れたので、異世界で商会を立ち上げようと思います:</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>最後にひとつだけお願いしてもよろしいでしょうか11</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>売れ残りの奴隷エルフを拾ったので、娘にすることにした</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>シーカーズ~迷宮最強のおじさん、神配信者となる~</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>異世界でスローライフを(願望)</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>現実主義勇者の王国再建記XIV</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>アフターゴッド</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>黄昏流星群</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>九条の大罪</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>本好きの下剋上~司書になるためには手段を選んでいられません~第四部「貴族院の図書館を救いたい!11」</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>カッコウの許嫁</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>虚構推理</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ピンクとハバネロ</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>旦那様の溺愛には黒い秘密がある</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>雛名はシてあげたい!~アナタの復讐、引き受けます~</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>目玉焼きにはソースか?醤油か?(フルカラー)</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>復讐の刻~愛する息子が殺された~</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>社長令嬢復讐日記</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>無能力の私が次期当主のツガイになりました</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>代わりの花嫁 ~愛する人と、姉の代わりに結婚します~</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>うちの夫、やばくないですか?</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>初恋は先生でした ~私を見つけてくれた人~</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>捨てられ貴族の無人島のびのび開拓記~ようやく自由を手に入れたので、もふもふたちと気まぐれスローライフを満喫します~</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>イジワル同居人は御曹司!?</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>お見合い婚にも初夜は必要ですか?</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>すばらしき新世界(フルカラー)</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>すばらしき新世界(フルカラー)</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ホームセンターごと呼び出された私の大迷宮リノベーション!</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ホームセンターごと呼び出された私の大迷宮リノベーション!</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ホームセンターごと呼び出された私の大迷宮リノベーション!</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ダチョウ獣人のはちゃめちゃ無双</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ダチョウ獣人のはちゃめちゃ無双</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ダチョウ獣人のはちゃめちゃ無双</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -15,6 +15,7 @@
     <sheet name="2025-11-26" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="2025-12-03" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="2025-12-10" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="2025-12-17" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11759,4 +11760,1345 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ONE PIECE</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ワールドトリガー</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAKAMOTO DAYS</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ザ・ファブル The third secret</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>青の祓魔師</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>アオのハコ</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>魔入りました!入間くん</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>逃げ上手の若君</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐&amp;『ざまぁ!』します!</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>アマチュアビジランテ</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>魔男のイチ</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>勇者パーティを追い出された器用貧乏 ~パーティ事情で付与術士をやっていた剣士、万能へと至る~</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>怪物事変</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ウィッチウォッチ</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ブルーピリオド</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>グラぱらっ!</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>桃源暗鬼</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ねずみの初恋</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ラーメン赤猫</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>似鳥教授の可愛い悪あがき</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>アザミヤコを好きになる</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>神血の救世主~0.00000001%を引き当て最強へ~</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>実は俺、最強でした?</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>いきなり結婚宣言~裏切られ絶望した私に待っていたのは溺愛でした~1</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>鬼上司のヤキモチが可愛すぎます!!</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>私と上司の内緒の事情</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>その悪役貴族、ママヒロインが好きすぎる</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>嘘つきカノジョの影盛さん(フルカラー)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ダンジョンに置き去りにされたので定住した~そしてダンジョンマスターへ~</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>いつでも自宅に帰れる俺は、異世界で行商人をはじめました</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>異世界領地改革~土魔法で始める公共事業~</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ふつうの軽音部</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SPY×FAMILY</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>なかなか稀少な光谷さん</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>魔法歌姫マジカルギンガ 第24話</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ハニトラ・ホームステイ~北欧人妻アンナさんの危険な香り~</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>神血の救世主~0.00000001%を引き当て最強へ~</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>この冒険者、人類史最強です~外れスキル『鑑定』が『継承』に覚醒したので、数多の英雄たちの力を受け継ぎ無双する~</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>こじらせ令嬢ですが、実は王子だった男友達に溺愛されています第1話</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>うたの☆プリンセスさまっ♪BACK to the IDOL1話</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>モラハラ不倫~私はやっぱり欠陥品1</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>悪役令嬢は全力でグータラしたいのに、隣国皇太子が溺愛してくる。なぜ。 (エンジェライトコミックス)</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>別れ際、アイツは私にキスをする</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>鬼上司のヤキモチが可愛すぎます!!</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>私と上司の内緒の事情</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>私と上司の内緒の事情</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>私と上司の内緒の事情</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>なかなか稀少な光谷さん</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>なかなか稀少な光谷さん</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>アザミヤコを好きになる</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>アザミヤコを好きになる</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>その悪役貴族、ママヒロインが好きすぎる</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>その悪役貴族、ママヒロインが好きすぎる</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>灰かぶりの天使</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>死霊術師ウェルツの平和論 WEBコミックガンマぷらす連載版 第1話</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>聖なる加護持ち令嬢は、騎士を目指しているので聖女にはなりません。 WEBコミックガンマぷらす連載版 第一話</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>転生したらポンコツメイドと呼ばれていました</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>聖人公爵様がラスボスだということを私だけが知っている ストーリアダッシュ連載版 第1話</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>義妹に婚約者を奪われたので、好きに生きようと思います。 ストーリアダッシュ連載版 第1話</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>幽閉令嬢の気ままな異世界生活~転生ライフを楽しんでいるので、邪魔しに来ないでくれませんか、元婚約者様?~ ストーリアダッシュ連載版 第1話</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>透明人間になったわたしと、わたしに興味がない(はずの)夫の奇妙な三か月間 ストーリアダッシュ連載版 第1話</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>溺愛策士な護衛騎士は純粋培養令嬢に意地悪したい。 ストーリアダッシュ連載版 第1話</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>エルフさんの魔法料理店 妖精女王として転生したけれど、まずはのんびりお料理作りまくります! ストーリアダッシュ連載版 第1話</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐&amp;『ざまぁ!』します!</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>再召喚された勇者は一般人として生きていく?</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>サンキューピッチ</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>わたしの幸せな結婚</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>零細奴隷商人、一人も奴隷が売れなかったので売れ残り少女たちと辺境でスローライフをする~毎日優しく接していたら、いつの間にか勝手に魔物を狩るようになってきた。え、この子たち最強種の魔族だったの?~(ノヴァコミックス)2</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>帝国機神ヴォルカミオン2</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>先日救っていただいたドラゴンです(ノヴァコミックス)3</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>レンズの向こうの女神たち2</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>水魔法なんて使えないと追放されたけど、水が万能だと気がつき水の賢者と呼ばれるまでに成長しました~今更水不足と泣きついても簡単には譲れません~3</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ブリッツ・マジック・スケーリング@COMIC 第1話</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>え? ギルド内で唯一を極めてる俺をクビですか?@COMIC 第1話</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件~魔物の国の歩き方~</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>元騎士の辺境伯令嬢は悪魔の花嫁となる1</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>恋するふたりは裏の顔がある</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>直葉くんはすぐに結婚したい!</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>機密少女と暗号戦争</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>私と上司の内緒の事情</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>灰かぶりの天使</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>灰かぶりの天使</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ドリーミングスクール</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>僕の吸血姫を笑わせたい</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>転生したらポンコツメイドと呼ばれていました</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>3組の幼なじみ</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>お父さんが早く死にますように。2</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ぼっち・ざ・ろっく!</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>GIANT KILLING</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>外れスキル「世界図書館」による異世界の知識と始める『産業革命』 ファイアーアロー?うるせえ、こっちはライフルだ!!</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -16,6 +16,7 @@
     <sheet name="2025-12-03" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="2025-12-10" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="2025-12-17" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="2025-12-24" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1975,6 +1976,1347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ONE PIECE</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐&amp;『ざまぁ!』します!</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>しょせん他人事ですから ~とある弁護士の本音の仕事~</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ケンガンオメガ</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>魔入りました!入間くん</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>勇者パーティを追い出された器用貧乏 ~パーティ事情で付与術士をやっていた剣士、万能へと至る~</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ワールドトリガー</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ひかえめに言っても、これは愛</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>失格紋の最強賢者 ~世界最強の賢者が更に強くなるために転生しました~</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>桃源暗鬼</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>誰かこの状況を説明してください! ~契約から始まるウェディング~ 11(アリアンローズコミックス)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>隣のステラ</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ザ・ファブル The third secret</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SAKAMOTO DAYS</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>殲滅魔導の最強賢者 無才の賢者、魔導を極め最強へ至る</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>神様のバレー</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>最弱テイマーはゴミ拾いの旅を始めました。@COMIC</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>じゃあ、あんたが作ってみろよ</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>好きじゃないけど、抱いてください1</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>推しが武道館いってくれたら死ぬ</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>異世界魔王と召喚少女の奴隷魔術</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>スライム倒して300年、知らないうちにレベルMAXになってました</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>異世界転生の冒険者</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>アイツノカノジョ</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>恋愛検証~相性0%男と結婚はアリ?1</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>レアモンスター?それ、ただの害虫ですよ</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>山、買いました ~異世界暮らしも悪くない~</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>組長娘と世話係15</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>無能なナナ</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>元最強探索者のおじさん。美少女配信者を助けて大バズりしてしまった。</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>悪役がいっぱい出てくるエロゲのキモデブ悪役貴族に転生した。痩せて、破滅回避し悪役達による犯罪を未然に防いでスローライフを目指す</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ペストが明けたら遊びましょう! ~中世ヨーロッパ世界と現代文明スローライフ~</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ゆかいな神統記</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>近畿地方のある場所について</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>悪役令嬢と極道P 異世界のヤクザ、乙女ゲームの悪役令嬢をプロデュースする。</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>変な家:</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>バーサス</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>最強陰陽師の異世界転生記~下僕の妖怪どもに比べてモンスターが弱すぎるんだが~(コミック)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>山口くんはワルくない</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>僕らの好きはわりきれない</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>怪物事変</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>元最強探索者のおじさん。美少女配信者を助けて大バズりしてしまった。</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>元最強探索者のおじさん。美少女配信者を助けて大バズりしてしまった。</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>悪役がいっぱい出てくるエロゲのキモデブ悪役貴族に転生した。痩せて、破滅回避し悪役達による犯罪を未然に防いでスローライフを目指す</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>悪役がいっぱい出てくるエロゲのキモデブ悪役貴族に転生した。痩せて、破滅回避し悪役達による犯罪を未然に防いでスローライフを目指す</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>レアモンスター?それ、ただの害虫ですよ</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>レアモンスター?それ、ただの害虫ですよ</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>近畿地方のある場所について</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>近畿地方のある場所について</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>山、買いました ~異世界暮らしも悪くない~</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>山、買いました ~異世界暮らしも悪くない~</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>全員記憶喪失オフィス</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ぷくちょらりファミリア</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>じゃあ、あんたが作ってみろよ</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GIANT KILLING</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ちひろさん</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>実は俺、最強でした?</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>メガネ、時々、ヤンキーくん</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>真綿の檻</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>喫茶小鳥の飛び立ちごはん</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>すれち恋</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>妖魔狩りの末裔-俺だけ不死身の覚醒者-2</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>あなたの戸籍、俺にください。4</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ペストが明けたら遊びましょう! ~中世ヨーロッパ世界と現代文明スローライフ~</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ペストが明けたら遊びましょう! ~中世ヨーロッパ世界と現代文明スローライフ~</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ゆかいな神統記</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ゆかいな神統記</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>篠原君ちのおうちごはん!</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>嶋田と和泉</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>全員記憶喪失オフィス</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>全員記憶喪失オフィス</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>力石持つ</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>このマンガがすごい! comics アマテラスの暗号 第一話</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ギャラ飲み女子とラーメンおじさん</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>独身貴族は異世界を謳歌する ~結婚しない男の優雅なおひとりさまライフ~</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>素材採取家の異世界旅行記9</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥~生まれ変わって今更やり直す2度目の学院生活~</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ザ・ファブル The third secret</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>最強は田舎農家のおっさんでした~最高ランクのドラゴンを駆除した結果、実力が世界にバレました~</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>青の祓魔師</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SPY×FAMILY</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>私たちは傷口に愛を塗る1</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>あなたの戸籍、俺にください。1</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>人気配信者たちのマネージャーになったら、全員元カノだった 第1話</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>狙い撃ち 国税調査官 南原&amp;九野 1話</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>篠原君ちのおうちごはん!</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>篠原君ちのおうちごはん!</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>嶋田と和泉</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>嶋田と和泉</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>力石持つ</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>力石持つ</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -17,6 +17,7 @@
     <sheet name="2025-12-10" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="2025-12-17" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="2025-12-24" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="2025-12-31" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3317,6 +3318,1347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>葬送のフリーレン</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>俺だけレベルアップな件</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと~猫猫の後宮謎解き手帳~</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ジョジョの奇妙な冒険 ザ・ジョジョランズ</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ダイヤモンドの功罪</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ONE PIECE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ドンケツ第2章</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ウマ娘 シンデレラグレイ</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>バトルスタディーズ</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ホタルの嫁入り</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>帝乃三姉妹は案外、チョロい。</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ネトオク男の楽しい異世界貿易</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ダーウィン事変</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>廻天のアルバス</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>規格外のダンジョン攻略者、実は異世界帰りの元勇者1</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>THE BAND</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>変な家:</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>もう興味がないと離婚された令嬢の意外と楽しい新生活</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>災悪のアヴァロン~ゲーム最弱の悪役デブに転移したけど、俺だけ“やせれば強くてニューゲーム”な世界だったので、最速レベルアップ&amp;破滅フラグ回避で影の英雄を目指します~</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>兼松先生、美味しゅうございますか?</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>呪われ公爵と捨てられた花嫁の最愛婚1</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>恋愛不感症―ホントはもっと感じたい―</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>修羅幼女の英雄譚~半端者と言われた傭兵、幼女に転生して成り上がる~1</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>無能と追放された最弱魔法剣士、呪いが解けたので最強へ成り上がる1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>機動戦士ガンダム サンダーボルト</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>田舎者にはよくわかりません ぼんやり辺境伯令嬢は、断罪された公爵令息をお持ち帰りする</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>わたくしに恋してください! ~ループ二回目の悪役令嬢ですが破滅回避のため誘惑します~</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>星廻りのレヴィア</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>今世では、ひとりで生きようと思います。そのはずが…1</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ファンタジーには馴染めない ~アラフォー男、ハードモード異世界に転移したけど結局無双~</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>暴君王の初恋</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>恋だ獣</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>僕の彼女はデッカワイイ</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>田舎の黒ギャルJKと結婚しました</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>同居している剣聖の女師匠が可愛すぎて毎日幸せです</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>冒険者絶対殺すダンジョン</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>執事ですがなにか?~幼馴染のパワハラ皇女と絶縁したら、隣国の向日葵王女に拾われたのでこの身を捧げます~1</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>高嶺のハナさん</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ザ・ファブル The third secret</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ケンガンオメガ</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ブラックナイトパレード</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>最弱テイマーはゴミ拾いの旅を始めました。@COMIC</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>青の祓魔師</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>龍と苺</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>レッドブルー</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SAKAMOTO DAYS</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>アオのハコ</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>魔女の婚姻</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>成り代わり令嬢のループライン</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>初恋の少年は冷徹騎士に豹変していました</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>いぬみみ</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>フェアリーテイル・クロニクル ~空気読まない異世界ライフ~</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>大正シンデレラ~秘密の恋は髪が伸びるまで~</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>離縁は致しかねます!</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>僕の彼女はデッカワイイ</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>僕の彼女はデッカワイイ</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>日々は過ぎれど飯うまし</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>朧の花嫁~かりそめの婚約は、青く、甘く~</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>魔法歌姫マジカルギンガ 第25話</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ブルーピリオド</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>焼いてるふたり</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>怨み屋本舗DIABLO</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>神様のバレー</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>盤上のオリオン</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>桃源暗鬼</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>魔入りました!入間くん</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>トニカクカワイイ</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>たわら猫とまちがい人生</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>転生したら小魚だったけど龍になれるらしいので頑張ります</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>恋検</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ブラック嫁によろしく!</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>初恋相手の兄に嫁ぎました</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>田舎の黒ギャルJKと結婚しました</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>田舎の黒ギャルJKと結婚しました</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>同居している剣聖の女師匠が可愛すぎて毎日幸せです</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>同居している剣聖の女師匠が可愛すぎて毎日幸せです</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>冒険者絶対殺すダンジョン</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>冒険者絶対殺すダンジョン</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>東方Project二次創作シリーズ 紅魔館の女たち</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>おっさんはうぜぇぇぇんだよ!ってギルドから追放したくせに、後から復帰要請を出されても遅い。最高の仲間と出会った俺はこっちで最強を目指す! コミック版</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ちひろさん</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>凍牌 コールドガール</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>実は俺、最強でした?</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>失格紋の最強賢者 ~世界最強の賢者が更に強くなるために転生しました~</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>勇者パーティを追い出された器用貧乏 ~パーティ事情で付与術士をやっていた剣士、万能へと至る~</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>めしぬま。</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MIX</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>陸奥圓明流異界伝 修羅の紋 ムツさんはチョー強い?!</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>青のミブロー新選組編ー</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ワールドトリガー</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>離婚予定の契約婚なのに、冷酷公爵様に執着されています</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>田舎者にはよくわかりません ぼんやり辺境伯令嬢は、断罪された公爵令息をお持ち帰りする</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>田舎者にはよくわかりません ぼんやり辺境伯令嬢は、断罪された公爵令息をお持ち帰りする</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>魔女の婚姻</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -18,6 +18,7 @@
     <sheet name="2025-12-17" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="2025-12-24" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="2025-12-31" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="2026-01-07" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4659,6 +4660,1347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>片田舎のおっさん、剣聖になる~ただの田舎の剣術師範だったのに、大成した弟子たちが俺を放ってくれない件~</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>葬送のフリーレン</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>俺だけレベルアップな件</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ゴブリンスレイヤー</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>雑用付与術師が自分の最強に気付くまで(コミック)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ダーウィン事変</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ハニーレモンソーダ</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ゴブリンスレイヤー外伝:イヤーワン</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>太陽よりも眩しい星</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>フットボールネーション</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>悪食令嬢と狂血公爵 ~その魔物、私が美味しくいただきます!~</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ループ7回目の悪役令嬢は、元敵国で自由気ままな花嫁生活を満喫する</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>バトルスタディーズ</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと~猫猫の後宮謎解き手帳~</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ONE PIECE</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>アイヲンモール異世界店、本日グランドオープン! THE COMIC</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ガチャを回して仲間を増やす 最強の美少女軍団を作り上げろ THE COMIC</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>偽装カレシに愛されてしまいました</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ジョジョの奇妙な冒険 ザ・ジョジョランズ</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>カラフルグレー</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>突然パパになった最強ドラゴンの子育て日記~かわいい娘、ほのぼのと人間界最強に育つ~ THE COMIC</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ケジメつけさせてもらいます。元ヤン弁護士 東矢斎</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>片田舎のおっさん、剣聖になる外伝 はじまりの魔法剣士</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>一夜限りのお相手が溺愛先生へと変貌しました1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>国民的アイドルが弟になったら</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ガチャを回して仲間を増やす 最強の美少女軍団を作り上げろ THE COMIC</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>片田舎のおっさん、剣聖になる外伝 竜双剣の軌跡</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ダイヤモンドの功罪</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>隣の元カレくん 単行本版</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>八雲さんは餌づけがしたい。 特別読切</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>先生のうち、行っていい?ダメでもいくけど。1</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ワンダンス</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ドンケツ第2章</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>オーイ! とんぼ</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>無能と追放された最弱魔法剣士、呪いが解けたので最強へ成り上がる1</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>元最強の剣士は、異世界魔法に憧れる THE COMIC</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ジェネリック彼氏じゃダメですか?~元カレの弟と同居はじめました~</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>偽装カレシに愛されてしまいました</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>異世界迷宮のオーパーツ</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>クズ旦那と離婚したら、最高の愛を注がれています1</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>執事ですがなにか?~幼馴染のパワハラ皇女と絶縁したら、隣国の向日葵王女に拾われたのでこの身を捧げます~1</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>修羅幼女の英雄譚~半端者と言われた傭兵、幼女に転生して成り上がる~1</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>規格外のダンジョン攻略者、実は異世界帰りの元勇者1</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>境界迷宮と異界の魔術師</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>人気配信者たちのマネージャーになったら、全員元カノだった 第2話</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>乙女ゲームの当て馬悪役令嬢は、王太子殿下の幸せを願います! コミック版</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>国民的アイドルが弟になったら</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>国民的アイドルが弟になったら</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>夜を照らすポラリス~なくした記憶と恋の行方~</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>悪魔なボクは退魔師サマに愛されたい!!</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>欠けてるふたり~男友達と限界の夜に</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>偽装カレシに愛されてしまいました</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>異世界迷宮のオーパーツ</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>異世界迷宮のオーパーツ</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ツッコミ待ちの町野さん</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>すみっこ漫画家のトンデモ『裏』事件簿</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ディグイット</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>魔力0で最強の大賢者 ~それは魔法ではない、物理だ!~:</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ゴブリンスレイヤー外伝2 鍔鳴の太刀《ダイ・カタナ》</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>剣聖の幼馴染がパワハラで俺につらく当たるので、絶縁して辺境で魔剣士として出直すことにした。(コミック)</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>魔入りました!入間くん</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>お姉ちゃんの翠くん</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>私たちはシーツの中で恋をする</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>反逆の勇者~スキルを使って腹黒王女のココロとカラダを掌握せよ~</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>無能は不要と言われ『時計使い』の僕は職人ギルドから追い出されるも、ダンジョンの深部で真の力に覚醒する THE COMIC</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ガチャを回して仲間を増やす 最強の美少女軍団を作り上げろ THE COMIC</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>元最強の剣士は、異世界魔法に憧れる THE COMIC</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>デレたい彼女の裏表 第2話</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>彼の魔族は如何なる魔術をもって防護結界を攻略したか1</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>素直になれない雪乙女は眠れる竜騎士に甘くとかされる コミック版</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>こじらせ令嬢の幸せな黒歴史 ~鈍感騎士に溺愛されるための秘密のアプローチ~ コミック版</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ツッコミ待ちの町野さん</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ツッコミ待ちの町野さん</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>二番目な僕と一番の彼女</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>りゅうとあまがみ</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>きらめきの大和くん☆</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ねこねこ幼女の愛情ごはん~異世界でもふもふ達に料理を作ります!~</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>あきらめ令嬢は恋心なんていらない。~裏切られたはずなのに、婚約者からの溺愛が止まりません!~</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ライセット! ~転生令嬢による異世界ハーブアイテム革命~</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>S級ギルドを追放されたけど、実は俺だけドラゴンの言葉がわかるので、気付いたときには竜騎士の頂点を極めてました。</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>最凶の魔王に鍛えられた勇者、異世界帰還者たちの学園で無双する</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>異世界魔王と召喚少女の奴隷魔術</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>攻撃力極振りの最強魔術師~筋力値9999の大剣士、転生して二度目の人生を歩む~</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>追放されたS級鑑定士は最強のギルドを創る</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>日本へようこそエルフさん。</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>勇者パーティーにかわいい子がいたので、告白してみた。(コミック)</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>拷問バイトくんの日常</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>スノウボールアース</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ワールドトリガー</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>アオのハコ</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SAKAMOTO DAYS</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>社内探偵</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>バニシング・ツイン~私の中の君~</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>或いは、私の名探偵</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>或いは、私の名探偵</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>或いは、私の名探偵</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -19,6 +19,7 @@
     <sheet name="2025-12-24" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="2025-12-31" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="2026-01-07" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="2026-01-14" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6001,6 +6002,1347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ダンダダン</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>カグラバチ</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>呪術廻戦≡(モジュロ)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>片田舎のおっさん、剣聖になる~ただの田舎の剣術師範だったのに、大成した弟子たちが俺を放ってくれない件~</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>るろうに剣心―明治剣客浪漫譚・北海道編―</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>葬送のフリーレン</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>冒険王ビィト</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>人間カード</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>俺の死亡フラグが留まるところを知らない</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ワスレモノ</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>朱にまじわれば</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>年の差十五の旦那様~辺境伯の花嫁候補~</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>人間カード</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>葬-はぶり-</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>追放されたので、前世のレシピでパン職人はじめます!1</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>追放された転生重騎士はゲーム知識で無双する</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>あかね噺</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>リアル炎上「GPS」</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>カムゴロシ</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>隔離都市</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>年の差十五の旦那様~辺境伯の花嫁候補~</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>俺だけレベルアップな件</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>俺んちに来た女騎士と田舎暮らしすることになった件</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>年の差十五の旦那様~辺境伯の花嫁候補~</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ゴブリンスレイヤー</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>俺んちに来た女騎士と田舎暮らしすることになった件</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>邪風のストラ</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>僕たちの生きた理由</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>忘却バッテリー</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ドラゴンクエスト ダイの大冒険 勇者アバンと獄炎の魔王</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>キン肉マン</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>転生先で推しの弟に美味しくいただかれています</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>カムゴロシ</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>カムゴロシ</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>「才能の器」で目指す迷宮最深部 スキル横伸ばしのはずが、万能チートだった!</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ガチャを回して仲間を増やす 最強の美少女軍団を作り上げろ THE COMIC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>新テニスの王子様</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ハニーレモンソーダ</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>脱獄のカザリヤ</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ステータス・オール∞(インフィニティ) ∞使いの最強能力者、異世界を自由気ままに暮らします!</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>次に買うマンガ、この1話で決めよう! ~異世界デビューはここから! 異世界初心者編~</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>365日前の花嫁~男友達から強引に求婚されています</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>結婚式当日、新郎の弟にプロポーズされました。</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>魔法歌姫マジカルギンガ 第26話</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>猫と竜</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>「才能の器」で目指す迷宮最深部 スキル横伸ばしのはずが、万能チートだった!</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>不遇職の成り上がり 美少女人形と最強まで最高速で上りつめる</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ステータス・オール∞(インフィニティ) ∞使いの最強能力者、異世界を自由気ままに暮らします!</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>アイヲンモール異世界店、本日グランドオープン! THE COMIC</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ガチャを回して仲間を増やす 最強の美少女軍団を作り上げろ THE COMIC</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ガチャを回して仲間を増やす 最強の美少女軍団を作り上げろ THE COMIC</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ゲーム中盤で死ぬ悪役貴族に転生したので、外れスキルを駆使して最強を目指してみた</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ONE PIECE</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>脱獄のカザリヤ</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>イジメの時間</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>俺の死亡フラグが留まるところを知らない</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>悪魔なボクは退魔師サマに愛されたい!!</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>突然パパになった最強ドラゴンの子育て日記~かわいい娘、ほのぼのと人間界最強に育つ~ THE COMIC</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>規格外のダンジョン攻略者、実は異世界帰りの元勇者1</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>偽装カレシに愛されてしまいました</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>くれなゐの花嫁~大正北國恋物語~</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>男友達が激甘カレシになりました</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>What Happened to Yukio Sukimoto</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>小悪魔くんの甘い囁き</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>愛になるまであたためて</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>転生先で推しの弟に美味しくいただかれています</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>雑用付与術師が自分の最強に気付くまで(コミック)</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと~猫猫の後宮謎解き手帳~</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ケントゥリア</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>猫と竜</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>竜使の花嫁 ~新緑の乙女は聖竜の守護者に愛される~ 1(アリアンローズコミックス)</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>イジメの時間</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>賢者の弟子を名乗る賢者 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>賢者の弟子を名乗る賢者 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>賢者の弟子を名乗る賢者 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>経験人数が見えるメガネ</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>修羅幼女の英雄譚~半端者と言われた傭兵、幼女に転生して成り上がる~1</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>偽装カレシに愛されてしまいました</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>偽装カレシに愛されてしまいました</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>俺様婚約者には惚れたくありません!@COMIC 第1話</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>大正浪漫 斜陽のくちづけ~傷だらけのご令嬢は剛腕社長に一途に愛される</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>暴君皇子の契約妃</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>暴君皇子の契約妃</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>伯爵家の不幸な養女は、異国の王子に愛される</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>男友達が激甘カレシになりました</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>男友達が激甘カレシになりました</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>31歳、初カレ。</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>結婚式当日、新郎の弟にプロポーズされました。</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>年の差十五の旦那様~辺境伯の花嫁候補~</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>年の差十五の旦那様~辺境伯の花嫁候補~</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>365日前の花嫁~男友達から強引に求婚されています</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ガチャを回して仲間を増やす 最強の美少女軍団を作り上げろ THE COMIC</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>神血の救世主~0.00000001%を引き当て最強へ~</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>神血の救世主~0.00000001%を引き当て最強へ~</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>幼稚園WARS</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>彼岸島 48日後…</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -20,6 +20,7 @@
     <sheet name="2025-12-31" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="2026-01-07" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="2026-01-14" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="2026-01-21" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7343,6 +7344,1347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる ~弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた~</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>僕の心のヤバイやつ</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ダンダダン</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>弱虫ペダル</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>貴族転生 ~恵まれた生まれから最強の力を得る~</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>空挺ドラゴンズ</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>うるわしの宵の月</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>呪術廻戦≡(モジュロ)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>カグラバチ</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>追放された没落令嬢は拳ひとつで異世界を生き延びる! コミック版</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ヘルモード ~やり込み好きのゲーマーは廃設定の異世界で無双する~はじまりの召喚士13</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>異世界転生で賢者になって冒険者生活 ~で異世界最強~</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>領民0人スタートの辺境領主様 ~青のディアスと蒼角の乙女~14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>葬送のフリーレン</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>七つ屋志のぶの宝石匣</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>あなたの寵妃でかまわない ~騎士令嬢は吸血公爵に溺愛される~ コミック版</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>育成スキルはもういらないと勇者パーティを解雇されたので、退職金がわりにもらったを強くしてみる</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>即死チートが最強すぎて、異世界のやつらがまるで相手にならないんですが。 -ΑΩ-13</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>追放された転生重騎士はゲーム知識で無双する</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>片田舎のおっさん、剣聖になる~ただの田舎の剣術師範だったのに、大成した弟子たちが俺を放ってくれない件~</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>オオカミ陛下の躾け方 悪役令嬢は破滅フラグと一夜を共にしてしまったけど、溺愛させます! コミック版</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>アラフォー賢者の異世界生活日記~気ままな異世界教師ライフ~</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>脇役に転生したはずが、いつの間にか伝説の錬金術師になってた ~仲間たちが英雄でも俺は支援職なんだが~</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>忘却バッテリー</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>転生したらドラゴンの卵だった ~イバラのドラゴンロード~9</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>恋せよまやかし天使ども</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>るろうに剣心―明治剣客浪漫譚・北海道編―</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>攻略対象がモブ執事になりました</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>馬小屋暮らしのご令嬢は案外領主に向いている? コミック版</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ゲーム中盤で死ぬ悪役貴族に転生したので、外れスキルを駆使して最強を目指してみた</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ダンジョン・シェルパ 迷宮道先案内人</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>宮廷をクビになった植物魔導師はスローライフを謳歌する~のんびり世界樹を育てたら、最強領地ができました~</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>映像研には手を出すな!</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>侯爵令嬢は手駒を演じる 1(アリアンローズコミックス)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ハサミ男とサブカル女</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>地雷なんですか?地原さん</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>最強で最速の無限レベルアップ ~スキルとでレベル上限の枷が外れた俺は無双する~</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ザ・ファブル The third secret</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>漫画 ゆうえんち -バキ外伝-</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ゴブリンスレイヤー</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>最強タンクの迷宮攻略 ~体力9999のレアスキル持ちタンク、勇者パーティーを追放される~</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>冒険家になろう!~スキルボードでダンジョン攻略~(コミック)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>二十と成獣</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>僕の心のヤバイやつ ラブコメディが始まらない</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>あかね噺</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>くちべた食堂</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>堕天使そぷらのちゃんの復讐</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>咲きそめコンプレックス</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ナイト・リセット・キロポスト</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>エモロイド</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>朝比奈くんは一途に愛したい</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>このたび鬼上司の秘書になりまして</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>黒猫男子は年上彼女を溺愛する</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>パラレルトラッパーズ!</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>起きたら20年後なんですけど! ~悪役令嬢のその後のその後~ 1(アリアンローズコミックス)</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>お腹が痛くて死にそうです ~夜職女子の潰瘍性大腸炎日記~1</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>不倫がバレて謝罪代行を使いました。 不倫がバレて謝罪代行を使いました。</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>雷雷雷</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ザ・ファブル The third secret</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>穏やか貴族の休暇のすすめ。@COMIC</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>冒険王ビィト</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>呪術廻戦</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>くちべた食堂</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>くちべた食堂</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>スレイマンズ</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>堕天使そぷらのちゃんの復讐</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>堕天使そぷらのちゃんの復讐</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ディメンションウェーブ</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>咲きそめコンプレックス</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>咲きそめコンプレックス</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ナイト・リセット・キロポスト</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ナイト・リセット・キロポスト</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>幸福のおいしい道すがら</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>春川さんは今日も飢えている</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>年の差十五の旦那様~辺境伯の花嫁候補~</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>年の差十五の旦那様~辺境伯の花嫁候補~</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>年の差十五の旦那様~辺境伯の花嫁候補~</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>年の差十五の旦那様~辺境伯の花嫁候補~</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>年の差十五の旦那様~辺境伯の花嫁候補~</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>年の差十五の旦那様~辺境伯の花嫁候補~</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>前世は保育士、今世は悪役令嬢?からの、わがまま姫様の教育係!?</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>高嶺の花宮くんとぼっちな彼女</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>勇者の出番ねぇからっ!! ~異世界転生するけど俺は脇役と言われました~ コミック版</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>朝比奈くんは一途に愛したい</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>朝比奈くんは一途に愛したい</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>朝比奈くんは一途に愛したい</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>このたび鬼上司の秘書になりまして</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>元カレと再会してハジメテ。10年分抱かせて</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>元カレと再会してハジメテ。10年分抱かせて</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>社長が私を抱く理由</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>社長が私を抱く理由</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ひみつの犬飼くん</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>乙女ゲー世界はモブに厳しい世界です</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>外来魔法生物対策課</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>パラレルトラッパーズ!</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>パラレルトラッパーズ!</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>男爵無双 貴族嫌いの青年が田舎貴族に転生した件</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>魔法学園の最強暗殺者</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -21,6 +21,7 @@
     <sheet name="2026-01-07" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="2026-01-14" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="2026-01-21" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="2026-01-28" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8685,6 +8686,1347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア ~クソゲーハンター、神ゲーに挑まんとす~</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>はじめの一歩</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>金色のガッシュ!! 2 Page</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>フェルマーの料理</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>金色のガッシュ!!</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>カッコウの許嫁</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>葬送のフリーレン</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>黒岩メダカに私の可愛いが通じない</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ダンダダン</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TSUYOSHI 誰も勝てない、アイツには</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>うるわしの宵の月</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ビジネス婚ー好きになったら離婚しますー</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>僕の心のヤバイやつ</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>婚約者が浮気しているようなんですけど私は流行りの悪役令嬢ってことであってますか?</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>波うららかに、めおと日和</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ONE PIECE</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>#神奈川に住んでるエルフ</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>追放された没落令嬢は拳ひとつで異世界を生き延びる! コミック版</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>すだちの魔王城</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>弱虫ペダル</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>スキル? ねぇよそんなもん! ~不遇者たちの才能開花~ コミック版</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>異常死体解剖ファイル</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>契約恋人は、前世で私を裏切った男です1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>おしかけ勇者嫁 勇者は放逐されたおっさんを追いかけ、スローライフを応援する コミック版</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>異常死体解剖ファイル</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ケジメつけさせてもらいます。元ヤン弁護士 東矢斎</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>静かなるドン ― もうひとつの最終章 ―</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる ~弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた~</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>WORST外伝 ゼットン先生</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ヘルモード ~やり込み好きのゲーマーは廃設定の異世界で無双する~はじまりの召喚士13</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>恋せよまやかし天使ども</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>龍と苺</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>カグラバチ</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>呪術廻戦≡(モジュロ)</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>わたし、今日から「おひとりさま」</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>国民的アイドルが弟になったら</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ジャンク・ランク・ファミリー</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>転生幼女はあきらめない</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>貴族転生 ~恵まれた生まれから最強の力を得る~</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>旅はオールパス</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>イジメ島第1話</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>リベンジノート</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ケジメつけさせてもらいます。元ヤン弁護士 東矢斎</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>バニシング・ツイン~私の中の君~</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>リセット~もしも夫以外の誰かと~</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>義兄の純愛~初めての恋もカラダも、エリート弁護士に教えられました~</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>魔法歌姫マジカルギンガ 第27話</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ザ・ファブル The third secret</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>銭(インチキ)の力で、戦国の世を駆け抜ける。</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>片田舎のおっさん、剣聖になる~ただの田舎の剣術師範だったのに、大成した弟子たちが俺を放ってくれない件~</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>世界に一人、全属性魔法の使い手</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>穏やか貴族の休暇のすすめ。@COMIC</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>七つ屋志のぶの宝石匣</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>なつめとなつめ</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>リベンジノート</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>リベンジノート</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ケジメつけさせてもらいます。元ヤン弁護士 東矢斎</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>国民的アイドルが弟になったら</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>国民的アイドルが弟になったら</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>国民的アイドルが弟になったら</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>国民的アイドルが弟になったら</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>次に買うマンガ、この1話で決めよう! ~王道こそ至高にして最強! 王道恋愛編~</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>四天王最弱の自立計画(コミック) 1話</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>氷の侯爵令嬢は、魔狼騎士に甘やかに溶かされる</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>氷の侯爵令嬢は、魔狼騎士に甘やかに溶かされる</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>氷の侯爵令嬢は、魔狼騎士に甘やかに溶かされる</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>四獣封地伝</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>期限つき皇女のはずが、うまくやりすぎてしまったようです</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>期限つき皇女のはずが、うまくやりすぎてしまったようです</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>期限つき皇女のはずが、うまくやりすぎてしまったようです</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>聖女と公爵様の晩酌 ~前世グルメで餌付けして、のんびり楽しい偽物夫婦ぐらし~</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>にぶんのいち夫婦</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>俺だけレベルアップな件</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>お気楽領主の楽しい領地防衛</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>お気楽領主の楽しい領地防衛</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>お気楽領主の楽しい領地防衛</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>追放された転生重騎士はゲーム知識で無双する</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>異世界でテイムした最強の使い魔は、幼馴染の美少女でした</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>異世界じゃスローライフはままならない ~聖獣の主人は島育ち~6</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>お気楽領主の楽しい領地防衛</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>お気楽領主の楽しい領地防衛</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>お気楽領主の楽しい領地防衛</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>るろうに剣心―明治剣客浪漫譚・北海道編―</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>葬送のフリーレン</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>呪術廻戦</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>呪術廻戦</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>お気楽領主の楽しい領地防衛</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>旅はオールパス</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>旅はオールパス</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>40歳捨てられ花嫁、なぜか年下副社長に溺愛されてます1</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>勇者の出番ねぇからっ!! ~異世界転生するけど俺は脇役と言われました~ コミック版</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>俺はこの世界がモブでもになれば最強になれることを知っている@COMIC 第1話</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>乙女ゲームヒロインの『引き立て役の妹』に転生したので立場を奪ってやることにした。@COMIC 第1話</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>死の運命を回避するために、未来の大公様、私と結婚してください! 第1話</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>売られた聖女は異郷の王の愛を得る 第1話</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>アマーリエと悪食公爵~孤独な令嬢は心のすべてを食べられたい~ 1皿</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>起きたら20年後なんですけど! ~悪役令嬢のその後のその後~ 1(アリアンローズコミックス)</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>「《邪神の血》が流れている」と言われ、神聖教会を追放された神父です。 ~理不尽な理由で教会を追い出されたら、信仰対象の女神様も一緒についてきちゃいました~ コミック版</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -22,6 +22,7 @@
     <sheet name="2026-01-14" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="2026-01-21" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="2026-01-28" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="2026-02-04" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10027,6 +10028,1347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>スーパーの裏でヤニ吸うふたり 通常版</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>メダリスト</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>平和の国の島崎へ</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>望郷太郎</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>主人恋日記</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>信者ゼロの女神サマと始める異世界攻略</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア ~クソゲーハンター、神ゲーに挑まんとす~</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>大正學生愛妻家</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>フシノカミ 1 ~辺境から始める文明再生記~</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>おはらい箱の天才付与術師は、辺境で悠々自適に暮らしたい~万能付与術で気付いたら辺境が世界最強の快適拠点になっていた~</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ひとりぼっちの異世界攻略</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>煙たい話</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ダンダダン</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>「壇蜜」</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>高度に発達した医学は魔法と区別がつかない</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>青野くんに触りたいから死にたい</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>陸上自衛隊特務諜報機関 別班の犬</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mr.CB</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>僕の心のヤバイやつ</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>葬送のフリーレン</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ラガーにゃん 1~猫でもわかるラグビー入門~</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>最期の願いに月が泣く</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ひとりぼっちの異世界攻略</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>フェルマーの料理</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>貴族転生 ~恵まれた生まれから最強の力を得る~</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TSUYOSHI 誰も勝てない、アイツには</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ONE PIECE</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>#神奈川に住んでるエルフ</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>うららか</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>多聞くん今どっち!?</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>はじめの一歩</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>るろうに剣心―明治剣客浪漫譚・北海道編―</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>弱虫ペダル</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>呪術廻戦≡(モジュロ)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>追放されたパシリ、買い物スキルSSSで装備無双 ~買ったモノを超強化して最強パーティー目指します~第1話</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>婚約者が浮気しているようなんですけど私は流行りの悪役令嬢ってことであってますか?</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ひびワれこうじつ</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>俺、悪役騎士団長に転生する。</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>俺、悪役騎士団長に転生する。</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>俺、悪役騎士団長に転生する。</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>銀河特急 ミルキー☆サブウェイ</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>最期の願いに月が泣く</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>最期の願いに月が泣く</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>黒騎士様から全力で溺愛されていますが、すごもり聖女は今日も引きこもりたい!</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>バラバラ夫婦~手足をなくした夫はまだ生きてる1</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>サラリーマンが異世界に行ったら四天王になった話</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>異世界整体師 ~美女も亜人も魔物も竜も、お前ら全員揉みほぐす!!~</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>限界女神 異世界転生窓口はアットホームな職場です</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>追放された冒険者たちはHなダンジョンでなりあがる!1</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる ~弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた~</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ダーウィン事変</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ザ・ファブル The third secret</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>二階堂地獄ゴルフ</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>追放貴族は、外れスキルで英霊たちと辺境領地を再興する~英霊たちを召喚したら慕われたので、最強領地を作り上げます~</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Shrink~精神科医ヨワイ~</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ワンパンマン</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>スーパーの裏でヤニ吸うふたり</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ハズレスキルが覚醒したので、虐げられた過去を自由な人生に反転(リバース)します!</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>次に買うマンガ、この1話で決めよう! ~ハマったら抜け出せない! 王道ファンタジー編~</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>冗談で女勇者たちを口説いた大魔王、攫われて強制新婚生活1</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>パラダイスシフト1</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>黒髪清楚の冷酷美少女を助けたら、俺と二人きりの時だけデレるようになった件1</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>この結婚は誰がために</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>追放された冒険者たちはHなダンジョンでなりあがる!2</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>田舎のホームセンター男の自由な異世界生活</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>シャドーハウス</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>邪神の弁当屋さん</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>空挺ドラゴンズ</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>スーパーの裏でヤニ吸うふたり</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>スーパーの裏でヤニ吸うふたり 通常版</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>スーパーの裏でヤニ吸うふたり</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>貴族転生 ~恵まれた生まれから最強の力を得る~</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>薬屋のひとりごと</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>スーパーの裏でヤニ吸うふたり 通常版</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>スーパーの裏でヤニ吸うふたり</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ポイントギフター《経験値分配能力者》の異世界最強ソロライフ ~ブラックギルドから解放された男は万能最強職として無双する~(コミック)</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>学園騎士のレベルアップ!レベル1000超えの転生者、落ちこぼれクラスに入学。そして、(コミック)</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>フシノカミ 10 ~辺境から始める文明再生記~</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>葬送のフリーレン</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>金色のガッシュ!!</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SAKAMOTO DAYS</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>カグラバチ</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>乙女椿は笑わない</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>呪術廻戦</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>呪術廻戦</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>呪術廻戦</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>呪術廻戦</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>呪術廻戦</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ビジネス婚ー好きになったら離婚しますー</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>追加ダメージ1しか与えられない底辺配信者、双剣に持ち替えた途端に無双する1</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>僕らの恋は夢うつつ</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>兄様のライバルに目をつけられたようです(エンジェライトコミックス)</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>恋フレ ~恋人未満がちょうどいい~</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ひびワれこうじつ</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ひびワれこうじつ</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>銀河特急 ミルキー☆サブウェイ</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>銀河特急 ミルキー☆サブウェイ</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -23,6 +23,7 @@
     <sheet name="2026-01-21" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="2026-01-28" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="2026-02-04" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="2026-02-11" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11369,6 +11370,1347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>無能は不要と言われ『時計使い』の僕は職人ギルドから追い出されるも、ダンジョンの深部で真の力に覚醒する THE COMIC</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>レベル1から始まる召喚無双 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>レベル1から始まる召喚無双 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>正直不動産</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>傷モノの花嫁</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>スーパーの裏でヤニ吸うふたり 通常版</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>空母いぶきGREAT GAME</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>私の彼が姉の夫になった理由1</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>恋愛レベル99の男、落とします1</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>メダリスト</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>らーめん再遊記</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア ~クソゲーハンター、神ゲーに挑まんとす~</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ポイントギフター《経験値分配能力者》の異世界最強ソロライフ ~ブラックギルドから解放された男は万能最強職として無双する~(コミック)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>呪術廻戦≡(モジュロ)</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>社内探偵</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>モブ司祭だけど、この世界が乙女ゲームだと気づいたのでヒロインを育成します</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>史記 1 項羽と劉邦</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>嫌われ令嬢の老メイド 最果ての地の交流追憶</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>主人恋日記</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>葬送のフリーレン</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>最終防衛兵器な彼女の日常</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>レベル1から始まる召喚無双 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>信者ゼロの女神サマと始める異世界攻略</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>空挺ドラゴンズ</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>黄昏流星群</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TSUYOSHI 誰も勝てない、アイツには</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>うるわしの宵の月</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ダンダダン</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>先生のうち、行っていい?ダメでもいくけど。1</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>吸血鬼のお弁当になりたい</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>モブ司祭だけど、この世界が乙女ゲームだと気づいたのでヒロインを育成します</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>モブ司祭だけど、この世界が乙女ゲームだと気づいたのでヒロインを育成します</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>史記 2 項羽と劉邦</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>史記 3 項羽と劉邦</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>嫌われ令嬢の老メイド 最果ての地の交流追憶</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ちびころ転生者のモフモフ森暮らし 第1話</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>富嶽百景グラフィアトル</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>マスティマ・ガール・コンプレックス1</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>天恋月下伝 腹黒皇子と純粋天女</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>おとずれナース ~精神科訪問看護とこころの記録~</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>居場所を奪われ続けた私はどこに行けばいいのでしょうか?第1話</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>虐げられた秀才令嬢と隣国の腹黒研究者様の甘やかな薬草実験室</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>平和の国の島崎へ</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>望郷太郎</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>レベル1から始まる召喚無双 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>この世は戦う価値がある</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>進化の実~知らないうちに勝ち組人生~(コミック)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>異世界チート開拓記(コミック)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ヘルモード ~やり込み好きのゲーマーは廃設定の異世界で無双する~はじまりの召喚士13</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ONE PIECE</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>わたしの幸せな結婚</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>一夜限りのお相手が溺愛先生へと変貌しました1</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>最終防衛兵器な彼女の日常</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>最終防衛兵器な彼女の日常</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>異世界でチート能力を手にした俺は、現実世界をも無双する ガールズサイド</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>死にたいあなたに男子大学生がお肉をごちそうしてくれるだけのお話</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>猫と竜</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ビジネス婚ー好きになったら離婚しますー</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>なりそこない聖女は無自覚ヤンデレお義兄さまに溺愛される 第1話</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>おはらい箱の天才付与術師は、辺境で悠々自適に暮らしたい~万能付与術で気付いたら辺境が世界最強の快適拠点になっていた~</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>冷酷な碧眼皇太子は未亡人王女に求婚する第1話</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>娯楽革命~歌と踊りが禁止の異世界で、彼女は舞台の上に立つ~@COMIC 第1話</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>警部補ダイマジン</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>楠木さんは高校デビューに失敗している:</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>壁役など不要と追放されたS級冒険者、≪奴隷解放≫スキルを駆使して史上最強の国造り:</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる ~弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた~</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>波うららかに、めおと日和</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>無能は不要と言われ『時計使い』の僕は職人ギルドから追い出されるも、ダンジョンの深部で真の力に覚醒する THE COMIC</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>二階堂地獄ゴルフ</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>片田舎のおっさん、剣聖になる~ただの田舎の剣術師範だったのに、大成した弟子たちが俺を放ってくれない件~</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>学園騎士のレベルアップ!レベル1000超えの転生者、落ちこぼれクラスに入学。そして、(コミック)</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>島さん</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ひとりぼっちの異世界攻略</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>永世乙女の戦い方</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>僕の心のヤバイやつ</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>婚約者が浮気しているようなんですけど私は流行りの悪役令嬢ってことであってますか?</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>吸血鬼のお弁当になりたい</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>吸血鬼のお弁当になりたい</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>異世界でチート能力を手にした俺は、現実世界をも無双する ガールズサイド</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>異世界でチート能力を手にした俺は、現実世界をも無双する ガールズサイド</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>その呪物、取扱注意につき</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>その呪物、取扱注意につき</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>その呪物、取扱注意につき</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>煙たい話</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>恋愛魔法学院~乙女ゲー世界で最強を目指す~ 第3話</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ウォー・クライ</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>マスティマ・ガール・コンプレックス2</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>祖母姫、ロンドンへ行く!</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ルール・ブルー 異形の祓い屋と魔を喰う殺し屋</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>富嶽百景グラフィアトル</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>富嶽百景グラフィアトル</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>虐げられた秀才令嬢と隣国の腹黒研究者様の甘やかな薬草実験室</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>シングルマザーの転生悪女ですが、溺愛ルートつかみました!</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>俺だけレベルアップな件</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>GIANT KILLING</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ジャンク・ランク・ファミリー</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>お気楽領主の楽しい領地防衛</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>お気楽領主の楽しい領地防衛</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -24,6 +24,7 @@
     <sheet name="2026-01-28" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="2026-02-04" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="2026-02-11" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="2026-02-18" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12711,6 +12712,1347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -TWO BLUE VORTEX-</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>魔入りました!入間くん</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ミステリと言う勿れ</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>アオのハコ</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐&amp;『ざまぁ!』します!</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sランクパーティから解雇された~『呪いのアイテム』しか作れませんが、その性能はアーティファクト級なり……!~</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>桃源暗鬼</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>聖者無双</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>刃牙らへん</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>極楽街</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>レベル1から始まる召喚無双 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>パリピ孔明</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件 異聞 ~魔国暮らしのトリニティ~</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>レベル1から始まる召喚無双 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>だれでも抱けるキミが好き</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ダークギャザリング</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>魔入りました!入間くん if Episode of 魔フィア</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>レベル1から始まる召喚無双 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件 クレイマンREVENGE</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作』スキルで領地を爆速で開拓し最強の村を作ってしまう~最強クラフトスキルで始める、楽々領地開拓スローライフ~</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>凶乱令嬢ニア・リストン 病弱令嬢に転生した神殺しの武人の華麗なる無双録</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>100万の命の上に俺は立っている</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>義妹にすべてを奪われたのに元婚約者(上司)が溺愛してきます。1</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる~英雄村の少年がチート薬で無自覚無双~</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2.5次元の誘惑</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>レベル1から始まる召喚無双 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>僕の心のヤバイやつ</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>メダリスト</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>モンスターがあふれる世界になったので、好きに生きたいと思います</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>社畜剣聖、配信者になる ~ブラックギルド会社員、うっかり会社用回線でS級モンスターを相手に無双するところを全国配信してしまう~(コミック)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>土かぶりのエレナ姫</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>鵺の陰陽師</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>傷だらけの公爵令嬢は、隣国の皇太子に溺愛される1</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>無能は不要と言われ『時計使い』の僕は職人ギルドから追い出されるも、ダンジョンの深部で真の力に覚醒する THE COMIC</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>傷モノの花嫁</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ドローイング 最強漫画家はお絵描きスキルで異世界無双する!17</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>税金で買った本</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>世界最強の魔女、始めました ~私だけ『攻略サイト』を見れる世界で自由に生きます~</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>葬送のフリーレン</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ハイスクールハックアンドスラッシュ</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>苔から始まる異世界ライフ</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>育ちすぎたタマ</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>「変なバイト見つけた」時給××万円の理由がヤバすぎる1</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>世界で一番綺麗な姉はレベル1</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>世界で一番綺麗な姉はレベル1</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>神血の救世主~0.00000001%を引き当て最強へ~</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>神血の救世主~0.00000001%を引き当て最強へ~</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>チート薬師のスローライフ</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>転生したら平民でした。~生活水準に耐えられないので貴族を目指します~(コミック)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>金田一パパの事件簿</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>29歳独身中堅冒険者の日常</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>捨てられた地味王女は白狼殿下に溺愛される1</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>二度目の人生では、お飾り王妃になりません!1</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ハイスクールハックアンドスラッシュ</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ハイスクールハックアンドスラッシュ</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>苔から始まる異世界ライフ</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>苔から始まる異世界ライフ</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>三原ソフィアは怖ガール</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>育ちすぎたタマ</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>育ちすぎたタマ</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ダンジョン教室</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>16年目の復讐~奴らを地獄に送るまで1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>世界で一番綺麗な姉はレベル1</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>世界で一番綺麗な姉はレベル1</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>世界で一番綺麗な姉はレベル1</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>世界で一番綺麗な姉はレベル1</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>世界で一番綺麗な姉はレベル1</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>世界で一番綺麗な姉はレベル1</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>世界で一番綺麗な姉はレベル1</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>絶対に死ぬモブ悪役令嬢は初恋がしたい 第1話</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>超絶変身!! アースカイザー</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>嫁入りのススメ~大正御曹司の強引な求婚~7</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>スーパーの裏でヤニ吸うふたり 通常版</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>レベル1から始まる召喚無双 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>呪術廻戦≡(モジュロ)</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>レベル1から始まる召喚無双 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>レベル1から始まる召喚無双 THE COMIC</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>峰子と魔王 ~異世界転移の若返り最強婆さん、最弱魔王と世直しする~</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>中通りダイアリー</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>後方見守り幼なじみが甘すぎる</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>おとずれナース ~精神科訪問看護とこころの記録~</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>魔王城ホテルの悪役令嬢</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>魔王城ホテルの悪役令嬢</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>魔王城ホテルの悪役令嬢</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>身代わり秒バレ令嬢の契約結婚なのに、騎士公爵が「絶対に離婚しない」と溺愛してくる</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>身代わり秒バレ令嬢の契約結婚なのに、騎士公爵が「絶対に離婚しない」と溺愛してくる</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>身代わり秒バレ令嬢の契約結婚なのに、騎士公爵が「絶対に離婚しない」と溺愛してくる</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>悪役令嬢の遺言状1</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>無能は不要と言われ『時計使い』の僕は職人ギルドから追い出されるも、ダンジョンの深部で真の力に覚醒する THE COMIC</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>異世界迷宮でハーレムを</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>三原ソフィアは怖ガール</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>三原ソフィアは怖ガール</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ダンジョン教室</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ダンジョン教室</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>サベージ・キャッスル~堕落の迷宮~ 第1話</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -25,6 +25,7 @@
     <sheet name="2026-02-04" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="2026-02-11" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="2026-02-18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="2026-02-25" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14053,6 +14054,1347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ミステリと言う勿れ</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>転生賢者の異世界ライフ~第二の職業を得て、世界最強になりました~</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>チェンソーマン</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>金色のガッシュ!! 2 Page</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐&amp;『ざまぁ!』します!</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100万の命の上に俺は立っている</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>「くじ」から始まる婚約生活~厳正なる抽選の結果、笑わない次期公爵様の婚約者に当選しました~</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -TWO BLUE VORTEX-</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>星降る王国のニナ</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>最凶貴族は死亡フラグを覆す1</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件 異聞 ~魔国暮らしのトリニティ~</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>出来損ない皇子の成り上がり~聖痕無しの第三皇子に転生したけど、今度こそ家族を守るために最強を目指す~1</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>身代わりの生贄だったはずの私、凶犬王子の愛に困惑中 1(アリアンローズコミックス)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>無能の中の無能王子 スキルを授かりましたが、周りの女性はとかです コミック版</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>クラス転移に巻き込まれたコンビニ店員のおっさん、勇者には必要なかった余り物スキルを駆使して最強となるようです。 コミック版</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる~英雄村の少年がチート薬で無自覚無双~</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>王様ランキング</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>水属性の魔法使い@COMIC</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>マチ姉さんのポンコツおとぎ話アワー</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>人の恋路を邪魔する僕は</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>無能の中の無能王子 スキルを授かりましたが、周りの女性はとかです コミック版</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>金田一パパの事件簿</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>メダリスト</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>聖者無双</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>マチネとソワレ</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>正直不動産</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>29歳独身中堅冒険者の日常</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>桃源暗鬼</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -TWO BLUE VORTEX-</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>アオのハコ</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>大嫌いな運命の人1</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>悪意がえし</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ある日、惰眠を貪っていたら一族から追放されて森に捨てられました そのまま寝てたら周りが勝手に魔物の国を作ってたけど、私は気にせず今日も眠ります コミック版</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>最下層の僕が奴隷を飼ったら ―監禁観察日記―</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>転生したら平民でした。~生活水準に耐えられないので貴族を目指します~(コミック)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sランクパーティから解雇された~『呪いのアイテム』しか作れませんが、その性能はアーティファクト級なり……!~</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>だれでも抱けるキミが好き</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>血を這う亡国の王女</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>鬼の花嫁</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>むせるくらいの愛をあげる</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>おしえて執事くん</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>刃牙らへん</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -TWO BLUE VORTEX-</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -TWO BLUE VORTEX-</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>無能令嬢の契約結婚</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件 クレイマンREVENGE</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>英雄と賢者の転生婚~かつての好敵手と婚約して最強夫婦になりました~</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>悠久の愚者アズリーの、賢者のすゝめ と、ポチの大冒険13</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>戦隊大失格</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>魔入りました!入間くん</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -TWO BLUE VORTEX-</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -TWO BLUE VORTEX-</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -TWO BLUE VORTEX-</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>恋に溺れる配信者</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>燁姫</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>無能の中の無能王子 スキルを授かりましたが、周りの女性はとかです コミック版</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>テイマーさんのVRMMO育成日誌 コミック版</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>細菌少女</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>謎のユリイカ</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>アラフォー賢者の異世界生活日記 ZERO ソード・アンド・ソーサリス・ワールド 第1話</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>侯爵令嬢は手駒を演じる 8(アリアンローズコミックス)</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>世界最強の魔女、始めました ~私だけ『攻略サイト』を見れる世界で自由に生きます~</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>パリピ孔明</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>幼女とスコップと魔眼王</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>涙雨とセレナーデ</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>大自然の魔法師アシュト、廃れた領地でスローライフ7</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>スーパーの裏でヤニ吸うふたり 通常版</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>器用貧乏、城を建てる~開拓学園の劣等生なのに、上級職のスキルと魔法がすべて使えます~@COMIC</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>モンスターがあふれる世界になったので、好きに生きたいと思います</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>メダリスト</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>異世界ありがとう</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>となりの席のヤツがそういう目で見てくる</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>獣王と薬草</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ほどなく、お別れです</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>メダリスト</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>メダリスト</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>メダリスト</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>メダリスト</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>生まれた直後に捨てられたけど、前世が大賢者だったので余裕で生きてます ~最強赤ちゃん大暴走~14</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>恋せよまやかし天使ども</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>はじめの一歩</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>青のミブロー新選組編ー</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>灰仭巫覡</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>とある魔術の禁書目録</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>僕の心のヤバイやつ</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>葬送のフリーレン</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -NARUTO NEXT GENERATIONS-</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -NARUTO NEXT GENERATIONS-</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -NARUTO NEXT GENERATIONS-</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -NARUTO NEXT GENERATIONS-</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -NARUTO NEXT GENERATIONS-</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -NARUTO NEXT GENERATIONS-</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>BORUTO-ボルト- -NARUTO NEXT GENERATIONS-</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>逆転エンゲージメント~悪名高い御曹司が私にだけ甘すぎる~</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
